--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -5666,13 +5666,17 @@
         <v>1.890183333333334</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -5701,15 +5705,15 @@
         <v>1.889316666666668</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5748,9 +5752,11 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5789,9 +5795,11 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5838,11 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>1.869</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,9 +5881,11 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+        <v>1.87</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,15 +5918,15 @@
         <v>1.886783333333334</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,15 +5959,15 @@
         <v>1.886450000000001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,15 +6000,15 @@
         <v>1.886116666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,15 +6041,15 @@
         <v>1.885733333333334</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,9 +6088,11 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>1.877</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,9 +6131,11 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+        <v>1.928</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6158,7 +6174,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,7 +6215,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6236,7 +6256,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,7 +6297,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,7 +6338,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,7 +6379,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6392,7 +6420,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6431,7 +6461,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6470,7 +6502,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,7 +6543,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,7 +6584,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,7 +6625,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,7 +6666,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6665,7 +6707,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,17 +6745,19 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>1</v>
+        <v>1.027760472610097</v>
       </c>
     </row>
     <row r="178">
@@ -6744,11 +6790,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6783,12 +6825,10 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7093,17 +7133,13 @@
         <v>1.883850000000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K188" t="n">
-        <v>1.87</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
@@ -7132,22 +7168,14 @@
         <v>1.883383333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="K189" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7175,22 +7203,14 @@
         <v>1.883000000000001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K190" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7218,17 +7238,13 @@
         <v>1.882600000000001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K191" t="n">
-        <v>1.87</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
@@ -7257,22 +7273,14 @@
         <v>1.882200000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K192" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7300,22 +7308,14 @@
         <v>1.881566666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="K193" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7343,22 +7343,14 @@
         <v>1.881083333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K194" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7386,22 +7378,14 @@
         <v>1.880866666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K195" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7429,22 +7413,14 @@
         <v>1.880666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7472,22 +7448,14 @@
         <v>1.880316666666668</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7515,22 +7483,14 @@
         <v>1.880283333333334</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K198" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7558,22 +7518,14 @@
         <v>1.880283333333334</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K199" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +7559,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +7594,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7689,14 +7629,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="C2" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="D2" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="E2" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="F2" t="n">
-        <v>50787.708</v>
+        <v>632900.174</v>
       </c>
       <c r="G2" t="n">
-        <v>1.901083333333335</v>
+        <v>1.901200000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>1.909</v>
       </c>
       <c r="F3" t="n">
-        <v>3311.7886</v>
+        <v>50787.708</v>
       </c>
       <c r="G3" t="n">
-        <v>1.900900000000002</v>
+        <v>1.901083333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>1.909</v>
       </c>
       <c r="F4" t="n">
-        <v>141249.4792</v>
+        <v>3311.7886</v>
       </c>
       <c r="G4" t="n">
-        <v>1.900783333333336</v>
+        <v>1.900900000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.909</v>
       </c>
       <c r="C5" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E5" t="n">
         <v>1.909</v>
       </c>
       <c r="F5" t="n">
-        <v>215827.6552</v>
+        <v>141249.4792</v>
       </c>
       <c r="G5" t="n">
-        <v>1.900950000000002</v>
+        <v>1.900783333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>1.909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E6" t="n">
         <v>1.909</v>
       </c>
       <c r="F6" t="n">
-        <v>200000</v>
+        <v>215827.6552</v>
       </c>
       <c r="G6" t="n">
-        <v>1.901250000000002</v>
+        <v>1.900950000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="C7" t="n">
         <v>1.924</v>
@@ -617,13 +617,13 @@
         <v>1.924</v>
       </c>
       <c r="E7" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="F7" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G7" t="n">
-        <v>1.901733333333336</v>
+        <v>1.901250000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.924</v>
       </c>
       <c r="F8" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G8" t="n">
-        <v>1.902133333333336</v>
+        <v>1.901733333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.923</v>
+        <v>1.924</v>
       </c>
       <c r="C9" t="n">
-        <v>1.923</v>
+        <v>1.924</v>
       </c>
       <c r="D9" t="n">
         <v>1.924</v>
       </c>
       <c r="E9" t="n">
-        <v>1.923</v>
+        <v>1.924</v>
       </c>
       <c r="F9" t="n">
-        <v>103257.3526</v>
+        <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>1.902533333333336</v>
+        <v>1.902133333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>1.923</v>
       </c>
       <c r="D10" t="n">
-        <v>1.923</v>
+        <v>1.924</v>
       </c>
       <c r="E10" t="n">
         <v>1.923</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>103257.3526</v>
       </c>
       <c r="G10" t="n">
-        <v>1.902933333333336</v>
+        <v>1.902533333333336</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>1.903316666666669</v>
+        <v>1.902933333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>1.923</v>
       </c>
       <c r="C12" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="D12" t="n">
         <v>1.923</v>
       </c>
       <c r="E12" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="F12" t="n">
-        <v>129089.8888</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>1.903516666666669</v>
+        <v>1.903316666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.916</v>
+        <v>1.923</v>
       </c>
       <c r="C13" t="n">
-        <v>1.916</v>
+        <v>1.912</v>
       </c>
       <c r="D13" t="n">
-        <v>1.916</v>
+        <v>1.923</v>
       </c>
       <c r="E13" t="n">
-        <v>1.916</v>
+        <v>1.912</v>
       </c>
       <c r="F13" t="n">
-        <v>97170</v>
+        <v>129089.8888</v>
       </c>
       <c r="G13" t="n">
-        <v>1.903850000000002</v>
+        <v>1.903516666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.915</v>
+        <v>1.916</v>
       </c>
       <c r="C14" t="n">
-        <v>1.915</v>
+        <v>1.916</v>
       </c>
       <c r="D14" t="n">
-        <v>1.915</v>
+        <v>1.916</v>
       </c>
       <c r="E14" t="n">
-        <v>1.915</v>
+        <v>1.916</v>
       </c>
       <c r="F14" t="n">
-        <v>48590</v>
+        <v>97170</v>
       </c>
       <c r="G14" t="n">
-        <v>1.904150000000002</v>
+        <v>1.903850000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="C15" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="D15" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="E15" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="F15" t="n">
-        <v>31919.8888</v>
+        <v>48590</v>
       </c>
       <c r="G15" t="n">
-        <v>1.904516666666669</v>
+        <v>1.904150000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.923</v>
+        <v>1.916</v>
       </c>
       <c r="C16" t="n">
-        <v>1.923</v>
+        <v>1.916</v>
       </c>
       <c r="D16" t="n">
-        <v>1.924</v>
+        <v>1.916</v>
       </c>
       <c r="E16" t="n">
-        <v>1.923</v>
+        <v>1.916</v>
       </c>
       <c r="F16" t="n">
-        <v>95329.5641</v>
+        <v>31919.8888</v>
       </c>
       <c r="G16" t="n">
-        <v>1.905000000000002</v>
+        <v>1.904516666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.922</v>
+        <v>1.923</v>
       </c>
       <c r="C17" t="n">
-        <v>1.914</v>
+        <v>1.923</v>
       </c>
       <c r="D17" t="n">
         <v>1.924</v>
       </c>
       <c r="E17" t="n">
-        <v>1.914</v>
+        <v>1.923</v>
       </c>
       <c r="F17" t="n">
-        <v>291988.9447</v>
+        <v>95329.5641</v>
       </c>
       <c r="G17" t="n">
-        <v>1.904900000000002</v>
+        <v>1.905000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.914</v>
+        <v>1.922</v>
       </c>
       <c r="C18" t="n">
         <v>1.914</v>
       </c>
       <c r="D18" t="n">
-        <v>1.914</v>
+        <v>1.924</v>
       </c>
       <c r="E18" t="n">
         <v>1.914</v>
       </c>
       <c r="F18" t="n">
-        <v>19051.7155</v>
+        <v>291988.9447</v>
       </c>
       <c r="G18" t="n">
-        <v>1.905200000000002</v>
+        <v>1.904900000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.923</v>
+        <v>1.914</v>
       </c>
       <c r="C19" t="n">
-        <v>1.923</v>
+        <v>1.914</v>
       </c>
       <c r="D19" t="n">
-        <v>1.923</v>
+        <v>1.914</v>
       </c>
       <c r="E19" t="n">
-        <v>1.923</v>
+        <v>1.914</v>
       </c>
       <c r="F19" t="n">
-        <v>15080</v>
+        <v>19051.7155</v>
       </c>
       <c r="G19" t="n">
-        <v>1.905266666666669</v>
+        <v>1.905200000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="C20" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="D20" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="E20" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="F20" t="n">
-        <v>9190</v>
+        <v>15080</v>
       </c>
       <c r="G20" t="n">
-        <v>1.905466666666669</v>
+        <v>1.905266666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.922</v>
+        <v>1.912</v>
       </c>
       <c r="C21" t="n">
-        <v>1.922</v>
+        <v>1.912</v>
       </c>
       <c r="D21" t="n">
-        <v>1.922</v>
+        <v>1.912</v>
       </c>
       <c r="E21" t="n">
-        <v>1.922</v>
+        <v>1.912</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>9190</v>
       </c>
       <c r="G21" t="n">
-        <v>1.905833333333335</v>
+        <v>1.905466666666669</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.922</v>
       </c>
       <c r="F22" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.906283333333335</v>
+        <v>1.905833333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.922</v>
       </c>
       <c r="F23" t="n">
-        <v>105750</v>
+        <v>3000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906650000000002</v>
+        <v>1.906283333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>1.922</v>
       </c>
       <c r="F24" t="n">
-        <v>127891.4579</v>
+        <v>105750</v>
       </c>
       <c r="G24" t="n">
-        <v>1.907016666666668</v>
+        <v>1.906650000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.923</v>
+        <v>1.922</v>
       </c>
       <c r="C25" t="n">
-        <v>1.923</v>
+        <v>1.922</v>
       </c>
       <c r="D25" t="n">
-        <v>1.923</v>
+        <v>1.922</v>
       </c>
       <c r="E25" t="n">
-        <v>1.923</v>
+        <v>1.922</v>
       </c>
       <c r="F25" t="n">
-        <v>44131.6656</v>
+        <v>127891.4579</v>
       </c>
       <c r="G25" t="n">
-        <v>1.907566666666668</v>
+        <v>1.907016666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="C26" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="D26" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="E26" t="n">
-        <v>1.912</v>
+        <v>1.923</v>
       </c>
       <c r="F26" t="n">
-        <v>4347.647</v>
+        <v>44131.6656</v>
       </c>
       <c r="G26" t="n">
-        <v>1.907766666666668</v>
+        <v>1.907566666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="C27" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="D27" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="E27" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="F27" t="n">
-        <v>377342.3966</v>
+        <v>4347.647</v>
       </c>
       <c r="G27" t="n">
-        <v>1.908016666666668</v>
+        <v>1.907766666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="C28" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="D28" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="E28" t="n">
-        <v>1.923</v>
+        <v>1.915</v>
       </c>
       <c r="F28" t="n">
-        <v>5669.1651</v>
+        <v>377342.3966</v>
       </c>
       <c r="G28" t="n">
-        <v>1.908233333333335</v>
+        <v>1.908016666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.915</v>
+        <v>1.923</v>
       </c>
       <c r="C29" t="n">
-        <v>1.915</v>
+        <v>1.923</v>
       </c>
       <c r="D29" t="n">
-        <v>1.915</v>
+        <v>1.923</v>
       </c>
       <c r="E29" t="n">
-        <v>1.915</v>
+        <v>1.923</v>
       </c>
       <c r="F29" t="n">
-        <v>100000</v>
+        <v>5669.1651</v>
       </c>
       <c r="G29" t="n">
-        <v>1.908400000000002</v>
+        <v>1.908233333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1.915</v>
       </c>
       <c r="F30" t="n">
-        <v>195648.7599</v>
+        <v>100000</v>
       </c>
       <c r="G30" t="n">
-        <v>1.908566666666669</v>
+        <v>1.908400000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="C31" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="D31" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="E31" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="F31" t="n">
-        <v>752.8158</v>
+        <v>195648.7599</v>
       </c>
       <c r="G31" t="n">
-        <v>1.908983333333335</v>
+        <v>1.908566666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>1.92</v>
       </c>
       <c r="F32" t="n">
-        <v>41990.5904</v>
+        <v>752.8158</v>
       </c>
       <c r="G32" t="n">
-        <v>1.909350000000002</v>
+        <v>1.908983333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.914</v>
+        <v>1.92</v>
       </c>
       <c r="C33" t="n">
-        <v>1.914</v>
+        <v>1.92</v>
       </c>
       <c r="D33" t="n">
-        <v>1.914</v>
+        <v>1.92</v>
       </c>
       <c r="E33" t="n">
-        <v>1.914</v>
+        <v>1.92</v>
       </c>
       <c r="F33" t="n">
-        <v>21370</v>
+        <v>41990.5904</v>
       </c>
       <c r="G33" t="n">
-        <v>1.909616666666669</v>
+        <v>1.909350000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="C34" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="D34" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="E34" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="F34" t="n">
         <v>21370</v>
       </c>
       <c r="G34" t="n">
-        <v>1.909600000000002</v>
+        <v>1.909616666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.909</v>
+        <v>1.915</v>
       </c>
       <c r="C35" t="n">
-        <v>1.908</v>
+        <v>1.915</v>
       </c>
       <c r="D35" t="n">
-        <v>1.909</v>
+        <v>1.915</v>
       </c>
       <c r="E35" t="n">
-        <v>1.908</v>
+        <v>1.915</v>
       </c>
       <c r="F35" t="n">
-        <v>400000</v>
+        <v>21370</v>
       </c>
       <c r="G35" t="n">
-        <v>1.909450000000003</v>
+        <v>1.909600000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="C36" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="D36" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="E36" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="F36" t="n">
-        <v>67057.9145</v>
+        <v>400000</v>
       </c>
       <c r="G36" t="n">
         <v>1.909450000000003</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="C37" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="D37" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="E37" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="F37" t="n">
-        <v>39808.1272</v>
+        <v>67057.9145</v>
       </c>
       <c r="G37" t="n">
-        <v>1.909733333333336</v>
+        <v>1.909450000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.922</v>
+        <v>1.924</v>
       </c>
       <c r="C38" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D38" t="n">
-        <v>1.922</v>
+        <v>1.924</v>
       </c>
       <c r="E38" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F38" t="n">
-        <v>273232.141</v>
+        <v>39808.1272</v>
       </c>
       <c r="G38" t="n">
-        <v>1.909950000000003</v>
+        <v>1.909733333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.91</v>
+        <v>1.922</v>
       </c>
       <c r="C39" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D39" t="n">
-        <v>1.91</v>
+        <v>1.922</v>
       </c>
       <c r="E39" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F39" t="n">
-        <v>836048.0004</v>
+        <v>273232.141</v>
       </c>
       <c r="G39" t="n">
-        <v>1.909783333333336</v>
+        <v>1.909950000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F40" t="n">
-        <v>79273.7822</v>
+        <v>836048.0004</v>
       </c>
       <c r="G40" t="n">
         <v>1.909783333333336</v>
@@ -1810,10 +1810,10 @@
         <v>1.92</v>
       </c>
       <c r="F41" t="n">
-        <v>8806.5075</v>
+        <v>79273.7822</v>
       </c>
       <c r="G41" t="n">
-        <v>1.910000000000003</v>
+        <v>1.909783333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1.92</v>
       </c>
       <c r="F42" t="n">
-        <v>58239.4724</v>
+        <v>8806.5075</v>
       </c>
       <c r="G42" t="n">
-        <v>1.910383333333336</v>
+        <v>1.910000000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>1.92</v>
       </c>
       <c r="F43" t="n">
-        <v>7000</v>
+        <v>58239.4724</v>
       </c>
       <c r="G43" t="n">
-        <v>1.910883333333336</v>
+        <v>1.910383333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>1.92</v>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="G44" t="n">
-        <v>1.911383333333336</v>
+        <v>1.910883333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,19 +1938,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C45" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="D45" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E45" t="n">
-        <v>1.909</v>
+        <v>1.92</v>
       </c>
       <c r="F45" t="n">
-        <v>115309.54</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="n">
         <v>1.911383333333336</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C46" t="n">
         <v>1.909</v>
       </c>
-      <c r="C46" t="n">
-        <v>1.822</v>
-      </c>
       <c r="D46" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E46" t="n">
         <v>1.909</v>
       </c>
-      <c r="E46" t="n">
-        <v>1.822</v>
-      </c>
       <c r="F46" t="n">
-        <v>4573943.4331</v>
+        <v>115309.54</v>
       </c>
       <c r="G46" t="n">
-        <v>1.909933333333336</v>
+        <v>1.911383333333336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.903</v>
+        <v>1.909</v>
       </c>
       <c r="C47" t="n">
-        <v>1.903</v>
+        <v>1.822</v>
       </c>
       <c r="D47" t="n">
-        <v>1.903</v>
+        <v>1.909</v>
       </c>
       <c r="E47" t="n">
-        <v>1.903</v>
+        <v>1.822</v>
       </c>
       <c r="F47" t="n">
-        <v>17585.3433</v>
+        <v>4573943.4331</v>
       </c>
       <c r="G47" t="n">
-        <v>1.910150000000003</v>
+        <v>1.909933333333336</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="C48" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="D48" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="E48" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="F48" t="n">
-        <v>69740</v>
+        <v>17585.3433</v>
       </c>
       <c r="G48" t="n">
-        <v>1.910483333333336</v>
+        <v>1.910150000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>1.91</v>
       </c>
       <c r="F49" t="n">
-        <v>9000</v>
+        <v>69740</v>
       </c>
       <c r="G49" t="n">
-        <v>1.910500000000003</v>
+        <v>1.910483333333336</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="C50" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="E50" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="F50" t="n">
-        <v>19940.9175</v>
+        <v>9000</v>
       </c>
       <c r="G50" t="n">
-        <v>1.910783333333336</v>
+        <v>1.910500000000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.905</v>
+        <v>1.902</v>
       </c>
       <c r="C51" t="n">
-        <v>1.905</v>
+        <v>1.902</v>
       </c>
       <c r="D51" t="n">
-        <v>1.905</v>
+        <v>1.902</v>
       </c>
       <c r="E51" t="n">
-        <v>1.905</v>
+        <v>1.902</v>
       </c>
       <c r="F51" t="n">
-        <v>19950</v>
+        <v>19940.9175</v>
       </c>
       <c r="G51" t="n">
-        <v>1.911116666666669</v>
+        <v>1.910783333333336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="C52" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="D52" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="E52" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="F52" t="n">
-        <v>1174.0385</v>
+        <v>19950</v>
       </c>
       <c r="G52" t="n">
-        <v>1.911616666666669</v>
+        <v>1.911116666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>1.915</v>
       </c>
       <c r="F53" t="n">
-        <v>65000</v>
+        <v>1174.0385</v>
       </c>
       <c r="G53" t="n">
-        <v>1.912116666666669</v>
+        <v>1.911616666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>1.915</v>
       </c>
       <c r="C54" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="D54" t="n">
         <v>1.915</v>
       </c>
       <c r="E54" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="F54" t="n">
-        <v>59724.917</v>
+        <v>65000</v>
       </c>
       <c r="G54" t="n">
-        <v>1.912366666666669</v>
+        <v>1.912116666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.893</v>
+        <v>1.915</v>
       </c>
       <c r="C55" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="D55" t="n">
-        <v>1.893</v>
+        <v>1.915</v>
       </c>
       <c r="E55" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="F55" t="n">
-        <v>16304.4741</v>
+        <v>59724.917</v>
       </c>
       <c r="G55" t="n">
-        <v>1.912266666666669</v>
+        <v>1.912366666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.905</v>
+        <v>1.893</v>
       </c>
       <c r="C56" t="n">
-        <v>1.905</v>
+        <v>1.879</v>
       </c>
       <c r="D56" t="n">
-        <v>1.905</v>
+        <v>1.893</v>
       </c>
       <c r="E56" t="n">
-        <v>1.905</v>
+        <v>1.879</v>
       </c>
       <c r="F56" t="n">
-        <v>261</v>
+        <v>16304.4741</v>
       </c>
       <c r="G56" t="n">
-        <v>1.912350000000002</v>
+        <v>1.912266666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="C57" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="D57" t="n">
-        <v>1.895</v>
+        <v>1.905</v>
       </c>
       <c r="E57" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="F57" t="n">
-        <v>29448.6802</v>
+        <v>261</v>
       </c>
       <c r="G57" t="n">
-        <v>1.912033333333336</v>
+        <v>1.912350000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.9</v>
+        <v>1.895</v>
       </c>
       <c r="C58" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="D58" t="n">
-        <v>1.9</v>
+        <v>1.895</v>
       </c>
       <c r="E58" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="F58" t="n">
-        <v>29238.9207</v>
+        <v>29448.6802</v>
       </c>
       <c r="G58" t="n">
-        <v>1.912283333333336</v>
+        <v>1.912033333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>1.9</v>
       </c>
       <c r="C59" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D59" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E59" t="n">
         <v>1.9</v>
       </c>
       <c r="F59" t="n">
-        <v>392177.2646</v>
+        <v>29238.9207</v>
       </c>
       <c r="G59" t="n">
-        <v>1.912300000000002</v>
+        <v>1.912283333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="C60" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="D60" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="E60" t="n">
-        <v>1.915</v>
+        <v>1.9</v>
       </c>
       <c r="F60" t="n">
-        <v>49679.9636</v>
+        <v>392177.2646</v>
       </c>
       <c r="G60" t="n">
-        <v>1.912316666666669</v>
+        <v>1.912300000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="C61" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="D61" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="E61" t="n">
-        <v>1.89</v>
+        <v>1.915</v>
       </c>
       <c r="F61" t="n">
-        <v>120207.4906</v>
+        <v>49679.9636</v>
       </c>
       <c r="G61" t="n">
-        <v>1.912566666666669</v>
+        <v>1.912316666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C62" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D62" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E62" t="n">
-        <v>1.909</v>
+        <v>1.89</v>
       </c>
       <c r="F62" t="n">
-        <v>12480</v>
+        <v>120207.4906</v>
       </c>
       <c r="G62" t="n">
         <v>1.912566666666669</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="C63" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="D63" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="E63" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="F63" t="n">
-        <v>886039.6485</v>
+        <v>12480</v>
       </c>
       <c r="G63" t="n">
-        <v>1.912716666666669</v>
+        <v>1.912566666666669</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C64" t="n">
-        <v>1.89</v>
+        <v>1.918</v>
       </c>
       <c r="D64" t="n">
-        <v>1.909</v>
+        <v>1.918</v>
       </c>
       <c r="E64" t="n">
-        <v>1.89</v>
+        <v>1.918</v>
       </c>
       <c r="F64" t="n">
-        <v>1950724.3264</v>
+        <v>886039.6485</v>
       </c>
       <c r="G64" t="n">
-        <v>1.912400000000002</v>
+        <v>1.912716666666669</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>1.9</v>
       </c>
       <c r="C65" t="n">
-        <v>1.908</v>
+        <v>1.89</v>
       </c>
       <c r="D65" t="n">
-        <v>1.908</v>
+        <v>1.909</v>
       </c>
       <c r="E65" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F65" t="n">
-        <v>24997.2203</v>
+        <v>1950724.3264</v>
       </c>
       <c r="G65" t="n">
-        <v>1.912366666666669</v>
+        <v>1.912400000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="C66" t="n">
         <v>1.908</v>
@@ -2682,13 +2682,13 @@
         <v>1.908</v>
       </c>
       <c r="E66" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="F66" t="n">
-        <v>91852.1848</v>
+        <v>24997.2203</v>
       </c>
       <c r="G66" t="n">
-        <v>1.912100000000002</v>
+        <v>1.912366666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>1.908</v>
       </c>
       <c r="F67" t="n">
-        <v>131038.8129</v>
+        <v>91852.1848</v>
       </c>
       <c r="G67" t="n">
-        <v>1.911833333333335</v>
+        <v>1.912100000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.918</v>
+        <v>1.908</v>
       </c>
       <c r="C68" t="n">
-        <v>1.918</v>
+        <v>1.908</v>
       </c>
       <c r="D68" t="n">
-        <v>1.918</v>
+        <v>1.908</v>
       </c>
       <c r="E68" t="n">
-        <v>1.918</v>
+        <v>1.908</v>
       </c>
       <c r="F68" t="n">
-        <v>6984</v>
+        <v>131038.8129</v>
       </c>
       <c r="G68" t="n">
-        <v>1.911733333333335</v>
+        <v>1.911833333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.908</v>
+        <v>1.918</v>
       </c>
       <c r="C69" t="n">
-        <v>1.908</v>
+        <v>1.918</v>
       </c>
       <c r="D69" t="n">
-        <v>1.908</v>
+        <v>1.918</v>
       </c>
       <c r="E69" t="n">
-        <v>1.908</v>
+        <v>1.918</v>
       </c>
       <c r="F69" t="n">
-        <v>235980</v>
+        <v>6984</v>
       </c>
       <c r="G69" t="n">
-        <v>1.911483333333335</v>
+        <v>1.911733333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>1.908</v>
       </c>
       <c r="F70" t="n">
-        <v>67644.98759999999</v>
+        <v>235980</v>
       </c>
       <c r="G70" t="n">
-        <v>1.911233333333335</v>
+        <v>1.911483333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>1.908</v>
       </c>
       <c r="F71" t="n">
-        <v>109335.0124</v>
+        <v>67644.98759999999</v>
       </c>
       <c r="G71" t="n">
-        <v>1.910983333333335</v>
+        <v>1.911233333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.908</v>
       </c>
       <c r="F72" t="n">
-        <v>59000</v>
+        <v>109335.0124</v>
       </c>
       <c r="G72" t="n">
-        <v>1.910916666666669</v>
+        <v>1.910983333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="C73" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="D73" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="E73" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="F73" t="n">
-        <v>47606.7083</v>
+        <v>59000</v>
       </c>
       <c r="G73" t="n">
-        <v>1.910650000000002</v>
+        <v>1.910916666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F74" t="n">
-        <v>64139.8652</v>
+        <v>47606.7083</v>
       </c>
       <c r="G74" t="n">
-        <v>1.910566666666669</v>
+        <v>1.910650000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="C75" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="D75" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E75" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="F75" t="n">
-        <v>173086.049</v>
+        <v>64139.8652</v>
       </c>
       <c r="G75" t="n">
-        <v>1.910600000000002</v>
+        <v>1.910566666666669</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>1.918</v>
       </c>
       <c r="F76" t="n">
-        <v>485996.3171</v>
+        <v>173086.049</v>
       </c>
       <c r="G76" t="n">
-        <v>1.910516666666669</v>
+        <v>1.910600000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C77" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="D77" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E77" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="F77" t="n">
-        <v>20893.9073</v>
+        <v>485996.3171</v>
       </c>
       <c r="G77" t="n">
-        <v>1.910283333333336</v>
+        <v>1.910516666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.891</v>
+        <v>1.9</v>
       </c>
       <c r="C78" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D78" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F78" t="n">
-        <v>526386.5196</v>
+        <v>20893.9073</v>
       </c>
       <c r="G78" t="n">
-        <v>1.910216666666669</v>
+        <v>1.910283333333336</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="C79" t="n">
         <v>1.91</v>
@@ -3137,13 +3137,13 @@
         <v>1.91</v>
       </c>
       <c r="E79" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F79" t="n">
-        <v>32083.1793</v>
+        <v>526386.5196</v>
       </c>
       <c r="G79" t="n">
-        <v>1.910000000000002</v>
+        <v>1.910216666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C80" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D80" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E80" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F80" t="n">
-        <v>21991.9451</v>
+        <v>32083.1793</v>
       </c>
       <c r="G80" t="n">
-        <v>1.909800000000002</v>
+        <v>1.910000000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C81" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D81" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E81" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F81" t="n">
         <v>21991.9451</v>
       </c>
       <c r="G81" t="n">
-        <v>1.909600000000002</v>
+        <v>1.909800000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="C82" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D82" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E82" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F82" t="n">
-        <v>288483.2335</v>
+        <v>21991.9451</v>
       </c>
       <c r="G82" t="n">
-        <v>1.909233333333336</v>
+        <v>1.909600000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C83" t="n">
         <v>1.9</v>
       </c>
       <c r="D83" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E83" t="n">
         <v>1.9</v>
       </c>
       <c r="F83" t="n">
-        <v>8256.946900000001</v>
+        <v>288483.2335</v>
       </c>
       <c r="G83" t="n">
-        <v>1.908866666666669</v>
+        <v>1.909233333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="C84" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="D84" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="E84" t="n">
-        <v>1.908</v>
+        <v>1.9</v>
       </c>
       <c r="F84" t="n">
-        <v>261</v>
+        <v>8256.946900000001</v>
       </c>
       <c r="G84" t="n">
-        <v>1.908633333333336</v>
+        <v>1.908866666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.895</v>
+        <v>1.908</v>
       </c>
       <c r="C85" t="n">
-        <v>1.895</v>
+        <v>1.908</v>
       </c>
       <c r="D85" t="n">
-        <v>1.895</v>
+        <v>1.908</v>
       </c>
       <c r="E85" t="n">
-        <v>1.895</v>
+        <v>1.908</v>
       </c>
       <c r="F85" t="n">
-        <v>233835.4653</v>
+        <v>261</v>
       </c>
       <c r="G85" t="n">
-        <v>1.908166666666669</v>
+        <v>1.908633333333336</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="C86" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="D86" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="E86" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="F86" t="n">
-        <v>208235.1922</v>
+        <v>233835.4653</v>
       </c>
       <c r="G86" t="n">
-        <v>1.907950000000002</v>
+        <v>1.908166666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.907</v>
+        <v>1.899</v>
       </c>
       <c r="C87" t="n">
-        <v>1.907</v>
+        <v>1.899</v>
       </c>
       <c r="D87" t="n">
-        <v>1.907</v>
+        <v>1.899</v>
       </c>
       <c r="E87" t="n">
-        <v>1.907</v>
+        <v>1.899</v>
       </c>
       <c r="F87" t="n">
-        <v>228367.8248</v>
+        <v>208235.1922</v>
       </c>
       <c r="G87" t="n">
-        <v>1.907816666666669</v>
+        <v>1.907950000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.902</v>
+        <v>1.907</v>
       </c>
       <c r="C88" t="n">
-        <v>1.896</v>
+        <v>1.907</v>
       </c>
       <c r="D88" t="n">
-        <v>1.902</v>
+        <v>1.907</v>
       </c>
       <c r="E88" t="n">
-        <v>1.896</v>
+        <v>1.907</v>
       </c>
       <c r="F88" t="n">
-        <v>405465.3679</v>
+        <v>228367.8248</v>
       </c>
       <c r="G88" t="n">
-        <v>1.907366666666669</v>
+        <v>1.907816666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.896</v>
+        <v>1.902</v>
       </c>
       <c r="C89" t="n">
         <v>1.896</v>
       </c>
       <c r="D89" t="n">
-        <v>1.896</v>
+        <v>1.902</v>
       </c>
       <c r="E89" t="n">
         <v>1.896</v>
       </c>
       <c r="F89" t="n">
-        <v>18550.6278</v>
+        <v>405465.3679</v>
       </c>
       <c r="G89" t="n">
-        <v>1.907050000000002</v>
+        <v>1.907366666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>1.896</v>
       </c>
       <c r="F90" t="n">
-        <v>189302.7214</v>
+        <v>18550.6278</v>
       </c>
       <c r="G90" t="n">
-        <v>1.906733333333335</v>
+        <v>1.907050000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.898</v>
+        <v>1.896</v>
       </c>
       <c r="C91" t="n">
-        <v>1.898</v>
+        <v>1.896</v>
       </c>
       <c r="D91" t="n">
-        <v>1.908</v>
+        <v>1.896</v>
       </c>
       <c r="E91" t="n">
-        <v>1.898</v>
+        <v>1.896</v>
       </c>
       <c r="F91" t="n">
-        <v>515411.2124</v>
+        <v>189302.7214</v>
       </c>
       <c r="G91" t="n">
-        <v>1.906366666666668</v>
+        <v>1.906733333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.908</v>
+        <v>1.898</v>
       </c>
       <c r="C92" t="n">
-        <v>1.902</v>
+        <v>1.898</v>
       </c>
       <c r="D92" t="n">
         <v>1.908</v>
       </c>
       <c r="E92" t="n">
-        <v>1.902</v>
+        <v>1.898</v>
       </c>
       <c r="F92" t="n">
-        <v>530827.1402</v>
+        <v>515411.2124</v>
       </c>
       <c r="G92" t="n">
-        <v>1.906066666666668</v>
+        <v>1.906366666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="D93" t="n">
-        <v>1.9</v>
+        <v>1.908</v>
       </c>
       <c r="E93" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="F93" t="n">
-        <v>90018.5316</v>
+        <v>530827.1402</v>
       </c>
       <c r="G93" t="n">
-        <v>1.905833333333335</v>
+        <v>1.906066666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>1.9</v>
       </c>
       <c r="F94" t="n">
-        <v>423330</v>
+        <v>90018.5316</v>
       </c>
       <c r="G94" t="n">
-        <v>1.905583333333335</v>
+        <v>1.905833333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="C95" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="D95" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="E95" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="F95" t="n">
-        <v>28425.0884</v>
+        <v>423330</v>
       </c>
       <c r="G95" t="n">
-        <v>1.905366666666668</v>
+        <v>1.905583333333335</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="C96" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="D96" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="E96" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="F96" t="n">
-        <v>1332</v>
+        <v>28425.0884</v>
       </c>
       <c r="G96" t="n">
-        <v>1.905116666666668</v>
+        <v>1.905366666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="C97" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="D97" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="E97" t="n">
-        <v>1.901</v>
+        <v>1.905</v>
       </c>
       <c r="F97" t="n">
-        <v>2220</v>
+        <v>1332</v>
       </c>
       <c r="G97" t="n">
-        <v>1.904733333333335</v>
+        <v>1.905116666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="D98" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E98" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="F98" t="n">
-        <v>20669.282</v>
+        <v>2220</v>
       </c>
       <c r="G98" t="n">
-        <v>1.904400000000002</v>
+        <v>1.904733333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>1.9</v>
       </c>
       <c r="F99" t="n">
-        <v>15863.118</v>
+        <v>20669.282</v>
       </c>
       <c r="G99" t="n">
-        <v>1.904233333333335</v>
+        <v>1.904400000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>1.9</v>
       </c>
       <c r="F100" t="n">
-        <v>17557.6</v>
+        <v>15863.118</v>
       </c>
       <c r="G100" t="n">
-        <v>1.903900000000002</v>
+        <v>1.904233333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>1.9</v>
       </c>
       <c r="F101" t="n">
-        <v>1198758.2417</v>
+        <v>17557.6</v>
       </c>
       <c r="G101" t="n">
-        <v>1.903566666666669</v>
+        <v>1.903900000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.896</v>
+        <v>1.9</v>
       </c>
       <c r="C102" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="D102" t="n">
-        <v>1.896</v>
+        <v>1.9</v>
       </c>
       <c r="E102" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F102" t="n">
-        <v>835791.5314</v>
+        <v>1198758.2417</v>
       </c>
       <c r="G102" t="n">
-        <v>1.903066666666668</v>
+        <v>1.903566666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="C103" t="n">
-        <v>1.895</v>
+        <v>1.89</v>
       </c>
       <c r="D103" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="E103" t="n">
-        <v>1.895</v>
+        <v>1.89</v>
       </c>
       <c r="F103" t="n">
-        <v>88371.4463</v>
+        <v>835791.5314</v>
       </c>
       <c r="G103" t="n">
-        <v>1.902650000000002</v>
+        <v>1.903066666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C104" t="n">
         <v>1.895</v>
       </c>
-      <c r="C104" t="n">
-        <v>1.885</v>
-      </c>
       <c r="D104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E104" t="n">
         <v>1.895</v>
       </c>
-      <c r="E104" t="n">
-        <v>1.885</v>
-      </c>
       <c r="F104" t="n">
-        <v>654158.674</v>
+        <v>88371.4463</v>
       </c>
       <c r="G104" t="n">
-        <v>1.902066666666669</v>
+        <v>1.902650000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="C105" t="n">
-        <v>1.879</v>
+        <v>1.885</v>
       </c>
       <c r="D105" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="E105" t="n">
-        <v>1.879</v>
+        <v>1.885</v>
       </c>
       <c r="F105" t="n">
-        <v>232740.0633</v>
+        <v>654158.674</v>
       </c>
       <c r="G105" t="n">
-        <v>1.901566666666668</v>
+        <v>1.902066666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="C106" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="D106" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="E106" t="n">
-        <v>1.9</v>
+        <v>1.879</v>
       </c>
       <c r="F106" t="n">
-        <v>4782.0837</v>
+        <v>232740.0633</v>
       </c>
       <c r="G106" t="n">
-        <v>1.902866666666668</v>
+        <v>1.901566666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="C107" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="D107" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E107" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="F107" t="n">
-        <v>444</v>
+        <v>4782.0837</v>
       </c>
       <c r="G107" t="n">
-        <v>1.902800000000002</v>
+        <v>1.902866666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.889</v>
+        <v>1.899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.889</v>
+        <v>1.899</v>
       </c>
       <c r="D108" t="n">
-        <v>1.889</v>
+        <v>1.899</v>
       </c>
       <c r="E108" t="n">
-        <v>1.889</v>
+        <v>1.899</v>
       </c>
       <c r="F108" t="n">
-        <v>8780</v>
+        <v>444</v>
       </c>
       <c r="G108" t="n">
-        <v>1.902450000000002</v>
+        <v>1.902800000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>1.889</v>
       </c>
       <c r="F109" t="n">
-        <v>184228.9236</v>
+        <v>8780</v>
       </c>
       <c r="G109" t="n">
-        <v>1.902100000000002</v>
+        <v>1.902450000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1.889</v>
       </c>
       <c r="F110" t="n">
-        <v>47750</v>
+        <v>184228.9236</v>
       </c>
       <c r="G110" t="n">
-        <v>1.901883333333335</v>
+        <v>1.902100000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.893</v>
+        <v>1.889</v>
       </c>
       <c r="C111" t="n">
-        <v>1.893</v>
+        <v>1.889</v>
       </c>
       <c r="D111" t="n">
-        <v>1.893</v>
+        <v>1.889</v>
       </c>
       <c r="E111" t="n">
-        <v>1.893</v>
+        <v>1.889</v>
       </c>
       <c r="F111" t="n">
-        <v>40159.4845</v>
+        <v>47750</v>
       </c>
       <c r="G111" t="n">
-        <v>1.901683333333335</v>
+        <v>1.901883333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>1.893</v>
       </c>
       <c r="F112" t="n">
-        <v>56350.5155</v>
+        <v>40159.4845</v>
       </c>
       <c r="G112" t="n">
-        <v>1.901316666666668</v>
+        <v>1.901683333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="C113" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="D113" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="E113" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="F113" t="n">
-        <v>41877.3992</v>
+        <v>56350.5155</v>
       </c>
       <c r="G113" t="n">
-        <v>1.900966666666668</v>
+        <v>1.901316666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="C114" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="D114" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="E114" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="F114" t="n">
-        <v>444</v>
+        <v>41877.3992</v>
       </c>
       <c r="G114" t="n">
-        <v>1.900950000000001</v>
+        <v>1.900966666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.885</v>
+        <v>1.899</v>
       </c>
       <c r="C115" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E115" t="n">
-        <v>1.885</v>
+        <v>1.899</v>
       </c>
       <c r="F115" t="n">
-        <v>131763.1355</v>
+        <v>444</v>
       </c>
       <c r="G115" t="n">
-        <v>1.901300000000002</v>
+        <v>1.900950000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="C116" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="D116" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="E116" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="F116" t="n">
-        <v>444</v>
+        <v>131763.1355</v>
       </c>
       <c r="G116" t="n">
-        <v>1.901133333333335</v>
+        <v>1.901300000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.885</v>
+        <v>1.895</v>
       </c>
       <c r="C117" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="D117" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="E117" t="n">
-        <v>1.885</v>
+        <v>1.895</v>
       </c>
       <c r="F117" t="n">
-        <v>165400</v>
+        <v>444</v>
       </c>
       <c r="G117" t="n">
-        <v>1.901216666666668</v>
+        <v>1.901133333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C118" t="n">
         <v>1.894</v>
       </c>
-      <c r="C118" t="n">
-        <v>1.885</v>
-      </c>
       <c r="D118" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="E118" t="n">
         <v>1.885</v>
       </c>
       <c r="F118" t="n">
-        <v>40908.4444</v>
+        <v>165400</v>
       </c>
       <c r="G118" t="n">
-        <v>1.900966666666668</v>
+        <v>1.901216666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>1.894</v>
       </c>
       <c r="C119" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="D119" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="E119" t="n">
-        <v>1.894</v>
+        <v>1.885</v>
       </c>
       <c r="F119" t="n">
-        <v>28470</v>
+        <v>40908.4444</v>
       </c>
       <c r="G119" t="n">
-        <v>1.900700000000002</v>
+        <v>1.900966666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4566,19 @@
         <v>1.894</v>
       </c>
       <c r="C120" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="D120" t="n">
-        <v>1.9</v>
+        <v>1.894</v>
       </c>
       <c r="E120" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="F120" t="n">
-        <v>78497.606</v>
+        <v>28470</v>
       </c>
       <c r="G120" t="n">
-        <v>1.900333333333335</v>
+        <v>1.900700000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>1.894</v>
       </c>
       <c r="C121" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="D121" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="E121" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="F121" t="n">
-        <v>467621.5227</v>
+        <v>78497.606</v>
       </c>
       <c r="G121" t="n">
-        <v>1.900233333333335</v>
+        <v>1.900333333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>1.894</v>
       </c>
       <c r="C122" t="n">
-        <v>1.884</v>
+        <v>1.894</v>
       </c>
       <c r="D122" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E122" t="n">
         <v>1.894</v>
       </c>
-      <c r="E122" t="n">
-        <v>1.884</v>
-      </c>
       <c r="F122" t="n">
-        <v>215994.709</v>
+        <v>467621.5227</v>
       </c>
       <c r="G122" t="n">
-        <v>1.899816666666668</v>
+        <v>1.900233333333335</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="C123" t="n">
-        <v>1.88</v>
+        <v>1.884</v>
       </c>
       <c r="D123" t="n">
-        <v>1.883</v>
+        <v>1.894</v>
       </c>
       <c r="E123" t="n">
-        <v>1.88</v>
+        <v>1.884</v>
       </c>
       <c r="F123" t="n">
-        <v>283903.975906382</v>
+        <v>215994.709</v>
       </c>
       <c r="G123" t="n">
-        <v>1.899183333333335</v>
+        <v>1.899816666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.88</v>
+        <v>1.883</v>
       </c>
       <c r="C124" t="n">
         <v>1.88</v>
       </c>
       <c r="D124" t="n">
-        <v>1.88</v>
+        <v>1.883</v>
       </c>
       <c r="E124" t="n">
         <v>1.88</v>
       </c>
       <c r="F124" t="n">
-        <v>62904.9823</v>
+        <v>283903.975906382</v>
       </c>
       <c r="G124" t="n">
-        <v>1.899016666666668</v>
+        <v>1.899183333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="C125" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="D125" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E125" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="F125" t="n">
-        <v>900460.3003</v>
+        <v>62904.9823</v>
       </c>
       <c r="G125" t="n">
-        <v>1.898483333333335</v>
+        <v>1.899016666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="C126" t="n">
-        <v>1.877</v>
+        <v>1.876</v>
       </c>
       <c r="D126" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="E126" t="n">
-        <v>1.866</v>
+        <v>1.876</v>
       </c>
       <c r="F126" t="n">
-        <v>265080.1927</v>
+        <v>900460.3003</v>
       </c>
       <c r="G126" t="n">
-        <v>1.897966666666668</v>
+        <v>1.898483333333335</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.887</v>
+        <v>1.877</v>
       </c>
       <c r="C127" t="n">
-        <v>1.891</v>
+        <v>1.877</v>
       </c>
       <c r="D127" t="n">
-        <v>1.891</v>
+        <v>1.877</v>
       </c>
       <c r="E127" t="n">
-        <v>1.887</v>
+        <v>1.866</v>
       </c>
       <c r="F127" t="n">
-        <v>2220</v>
+        <v>265080.1927</v>
       </c>
       <c r="G127" t="n">
-        <v>1.897683333333334</v>
+        <v>1.897966666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="C128" t="n">
-        <v>1.893</v>
+        <v>1.891</v>
       </c>
       <c r="D128" t="n">
-        <v>1.893</v>
+        <v>1.891</v>
       </c>
       <c r="E128" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="F128" t="n">
-        <v>184352.9565</v>
+        <v>2220</v>
       </c>
       <c r="G128" t="n">
-        <v>1.897266666666668</v>
+        <v>1.897683333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C129" t="n">
         <v>1.893</v>
       </c>
-      <c r="C129" t="n">
-        <v>1.894</v>
-      </c>
       <c r="D129" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="E129" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="F129" t="n">
-        <v>22162.336428933</v>
+        <v>184352.9565</v>
       </c>
       <c r="G129" t="n">
-        <v>1.897033333333334</v>
+        <v>1.897266666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>1.893</v>
       </c>
       <c r="C130" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="D130" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="E130" t="n">
         <v>1.893</v>
       </c>
       <c r="F130" t="n">
-        <v>27249.682</v>
+        <v>22162.336428933</v>
       </c>
       <c r="G130" t="n">
-        <v>1.896783333333335</v>
+        <v>1.897033333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="C131" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="D131" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="E131" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="F131" t="n">
-        <v>42841.4745</v>
+        <v>27249.682</v>
       </c>
       <c r="G131" t="n">
-        <v>1.896550000000001</v>
+        <v>1.896783333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>1.894</v>
       </c>
       <c r="F132" t="n">
-        <v>24790.4371</v>
+        <v>42841.4745</v>
       </c>
       <c r="G132" t="n">
-        <v>1.896316666666668</v>
+        <v>1.896550000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>1.894</v>
       </c>
       <c r="F133" t="n">
-        <v>10028.8403</v>
+        <v>24790.4371</v>
       </c>
       <c r="G133" t="n">
-        <v>1.896216666666668</v>
+        <v>1.896316666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="C134" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="D134" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="E134" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="F134" t="n">
-        <v>70235.0815</v>
+        <v>10028.8403</v>
       </c>
       <c r="G134" t="n">
-        <v>1.896033333333335</v>
+        <v>1.896216666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>1.895</v>
       </c>
       <c r="C135" t="n">
-        <v>1.895</v>
+        <v>1.899</v>
       </c>
       <c r="D135" t="n">
-        <v>1.895</v>
+        <v>1.899</v>
       </c>
       <c r="E135" t="n">
         <v>1.895</v>
       </c>
       <c r="F135" t="n">
-        <v>28870.3941</v>
+        <v>70235.0815</v>
       </c>
       <c r="G135" t="n">
-        <v>1.895650000000001</v>
+        <v>1.896033333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="C136" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="D136" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="E136" t="n">
-        <v>1.894</v>
+        <v>1.895</v>
       </c>
       <c r="F136" t="n">
-        <v>143216.1881</v>
+        <v>28870.3941</v>
       </c>
       <c r="G136" t="n">
-        <v>1.895250000000001</v>
+        <v>1.895650000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>1.894</v>
       </c>
       <c r="C137" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="D137" t="n">
         <v>1.894</v>
       </c>
       <c r="E137" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="F137" t="n">
-        <v>611780.3872999999</v>
+        <v>143216.1881</v>
       </c>
       <c r="G137" t="n">
-        <v>1.895100000000001</v>
+        <v>1.895250000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="C138" t="n">
         <v>1.891</v>
       </c>
       <c r="D138" t="n">
-        <v>1.891</v>
+        <v>1.894</v>
       </c>
       <c r="E138" t="n">
         <v>1.891</v>
       </c>
       <c r="F138" t="n">
-        <v>32030.3341</v>
+        <v>611780.3872999999</v>
       </c>
       <c r="G138" t="n">
-        <v>1.894783333333335</v>
+        <v>1.895100000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="C139" t="n">
-        <v>1.889</v>
+        <v>1.891</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="E139" t="n">
-        <v>1.889</v>
+        <v>1.891</v>
       </c>
       <c r="F139" t="n">
-        <v>55000</v>
+        <v>32030.3341</v>
       </c>
       <c r="G139" t="n">
-        <v>1.894433333333335</v>
+        <v>1.894783333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>1.889</v>
       </c>
       <c r="F140" t="n">
-        <v>16598.6094</v>
+        <v>55000</v>
       </c>
       <c r="G140" t="n">
-        <v>1.894250000000001</v>
+        <v>1.894433333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C141" t="n">
         <v>1.889</v>
       </c>
-      <c r="C141" t="n">
-        <v>1.897</v>
-      </c>
       <c r="D141" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="E141" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="F141" t="n">
-        <v>278023.5202</v>
+        <v>16598.6094</v>
       </c>
       <c r="G141" t="n">
-        <v>1.894033333333335</v>
+        <v>1.894250000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="C142" t="n">
-        <v>1.89</v>
+        <v>1.897</v>
       </c>
       <c r="D142" t="n">
-        <v>1.89</v>
+        <v>1.897</v>
       </c>
       <c r="E142" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="F142" t="n">
-        <v>3636.444</v>
+        <v>278023.5202</v>
       </c>
       <c r="G142" t="n">
-        <v>1.893866666666668</v>
+        <v>1.894033333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>1.89</v>
       </c>
       <c r="F143" t="n">
-        <v>6165.2693</v>
+        <v>3636.444</v>
       </c>
       <c r="G143" t="n">
-        <v>1.893700000000001</v>
+        <v>1.893866666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>1.89</v>
       </c>
       <c r="F144" t="n">
-        <v>21116.4732</v>
+        <v>6165.2693</v>
       </c>
       <c r="G144" t="n">
-        <v>1.893400000000001</v>
+        <v>1.893700000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.881</v>
+        <v>1.89</v>
       </c>
       <c r="C145" t="n">
-        <v>1.878</v>
+        <v>1.89</v>
       </c>
       <c r="D145" t="n">
-        <v>1.881</v>
+        <v>1.89</v>
       </c>
       <c r="E145" t="n">
-        <v>1.878</v>
+        <v>1.89</v>
       </c>
       <c r="F145" t="n">
-        <v>63647.9118</v>
+        <v>21116.4732</v>
       </c>
       <c r="G145" t="n">
-        <v>1.893116666666668</v>
+        <v>1.893400000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.884</v>
+        <v>1.881</v>
       </c>
       <c r="C146" t="n">
-        <v>1.884</v>
+        <v>1.878</v>
       </c>
       <c r="D146" t="n">
-        <v>1.884</v>
+        <v>1.881</v>
       </c>
       <c r="E146" t="n">
-        <v>1.884</v>
+        <v>1.878</v>
       </c>
       <c r="F146" t="n">
-        <v>2664</v>
+        <v>63647.9118</v>
       </c>
       <c r="G146" t="n">
-        <v>1.892866666666668</v>
+        <v>1.893116666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.879</v>
+        <v>1.884</v>
       </c>
       <c r="C147" t="n">
-        <v>1.876</v>
+        <v>1.884</v>
       </c>
       <c r="D147" t="n">
-        <v>1.879</v>
+        <v>1.884</v>
       </c>
       <c r="E147" t="n">
-        <v>1.876</v>
+        <v>1.884</v>
       </c>
       <c r="F147" t="n">
-        <v>341733.257</v>
+        <v>2664</v>
       </c>
       <c r="G147" t="n">
-        <v>1.892350000000001</v>
+        <v>1.892866666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.868</v>
+        <v>1.879</v>
       </c>
       <c r="C148" t="n">
-        <v>1.868</v>
+        <v>1.876</v>
       </c>
       <c r="D148" t="n">
-        <v>1.868</v>
+        <v>1.879</v>
       </c>
       <c r="E148" t="n">
-        <v>1.868</v>
+        <v>1.876</v>
       </c>
       <c r="F148" t="n">
-        <v>2664</v>
+        <v>341733.257</v>
       </c>
       <c r="G148" t="n">
-        <v>1.891883333333335</v>
+        <v>1.892350000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="C149" t="n">
-        <v>1.863</v>
+        <v>1.868</v>
       </c>
       <c r="D149" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="E149" t="n">
-        <v>1.863</v>
+        <v>1.868</v>
       </c>
       <c r="F149" t="n">
-        <v>172072.5517</v>
+        <v>2664</v>
       </c>
       <c r="G149" t="n">
-        <v>1.891333333333335</v>
+        <v>1.891883333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.862</v>
+        <v>1.867</v>
       </c>
       <c r="C150" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="D150" t="n">
-        <v>1.862</v>
+        <v>1.867</v>
       </c>
       <c r="E150" t="n">
-        <v>1.862</v>
+        <v>1.863</v>
       </c>
       <c r="F150" t="n">
-        <v>43608.169</v>
+        <v>172072.5517</v>
       </c>
       <c r="G150" t="n">
-        <v>1.890766666666668</v>
+        <v>1.891333333333335</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,35 +5648,31 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="C151" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="D151" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="E151" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="F151" t="n">
-        <v>20136.2957</v>
+        <v>43608.169</v>
       </c>
       <c r="G151" t="n">
-        <v>1.890183333333334</v>
+        <v>1.890766666666668</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1.862</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -5690,19 +5686,19 @@
         <v>1.863</v>
       </c>
       <c r="C152" t="n">
-        <v>1.85</v>
+        <v>1.863</v>
       </c>
       <c r="D152" t="n">
         <v>1.863</v>
       </c>
       <c r="E152" t="n">
-        <v>1.85</v>
+        <v>1.863</v>
       </c>
       <c r="F152" t="n">
-        <v>648077.2571</v>
+        <v>20136.2957</v>
       </c>
       <c r="G152" t="n">
-        <v>1.889316666666668</v>
+        <v>1.890183333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5711,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5728,40 +5718,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.852</v>
+        <v>1.863</v>
       </c>
       <c r="C153" t="n">
         <v>1.85</v>
       </c>
       <c r="D153" t="n">
-        <v>1.852</v>
+        <v>1.863</v>
       </c>
       <c r="E153" t="n">
         <v>1.85</v>
       </c>
       <c r="F153" t="n">
-        <v>341373.3969</v>
+        <v>648077.2571</v>
       </c>
       <c r="G153" t="n">
-        <v>1.888483333333334</v>
+        <v>1.889316666666668</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5771,40 +5753,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.869</v>
+        <v>1.852</v>
       </c>
       <c r="C154" t="n">
-        <v>1.869</v>
+        <v>1.85</v>
       </c>
       <c r="D154" t="n">
-        <v>1.869</v>
+        <v>1.852</v>
       </c>
       <c r="E154" t="n">
-        <v>1.869</v>
+        <v>1.85</v>
       </c>
       <c r="F154" t="n">
-        <v>125342.951</v>
+        <v>341373.3969</v>
       </c>
       <c r="G154" t="n">
-        <v>1.887966666666667</v>
+        <v>1.888483333333334</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K154" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5814,40 +5788,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="C155" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="D155" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="E155" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="F155" t="n">
-        <v>21827.7614</v>
+        <v>125342.951</v>
       </c>
       <c r="G155" t="n">
-        <v>1.887550000000001</v>
+        <v>1.887966666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5857,40 +5823,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="C156" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D156" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="E156" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="F156" t="n">
-        <v>14922.7144</v>
+        <v>21827.7614</v>
       </c>
       <c r="G156" t="n">
-        <v>1.887133333333334</v>
+        <v>1.887550000000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +5858,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C157" t="n">
         <v>1.88</v>
@@ -5909,13 +5867,13 @@
         <v>1.88</v>
       </c>
       <c r="E157" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F157" t="n">
-        <v>133950.1989</v>
+        <v>14922.7144</v>
       </c>
       <c r="G157" t="n">
-        <v>1.886783333333334</v>
+        <v>1.887133333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5924,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5953,10 +5905,10 @@
         <v>1.88</v>
       </c>
       <c r="F158" t="n">
-        <v>139746.0645</v>
+        <v>133950.1989</v>
       </c>
       <c r="G158" t="n">
-        <v>1.886450000000001</v>
+        <v>1.886783333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5965,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5982,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.872</v>
+        <v>1.88</v>
       </c>
       <c r="C159" t="n">
         <v>1.88</v>
@@ -5991,13 +5937,13 @@
         <v>1.88</v>
       </c>
       <c r="E159" t="n">
-        <v>1.871</v>
+        <v>1.88</v>
       </c>
       <c r="F159" t="n">
-        <v>211848.0578</v>
+        <v>139746.0645</v>
       </c>
       <c r="G159" t="n">
-        <v>1.886116666666667</v>
+        <v>1.886450000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6006,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6023,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.877</v>
+        <v>1.872</v>
       </c>
       <c r="C160" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="D160" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="E160" t="n">
-        <v>1.877</v>
+        <v>1.871</v>
       </c>
       <c r="F160" t="n">
-        <v>644310</v>
+        <v>211848.0578</v>
       </c>
       <c r="G160" t="n">
-        <v>1.885733333333334</v>
+        <v>1.886116666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6047,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6064,40 +5998,32 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.872</v>
+        <v>1.877</v>
       </c>
       <c r="C161" t="n">
-        <v>1.928</v>
+        <v>1.877</v>
       </c>
       <c r="D161" t="n">
-        <v>1.928</v>
+        <v>1.877</v>
       </c>
       <c r="E161" t="n">
-        <v>1.872</v>
+        <v>1.877</v>
       </c>
       <c r="F161" t="n">
-        <v>914434.33808558</v>
+        <v>644310</v>
       </c>
       <c r="G161" t="n">
-        <v>1.8862</v>
+        <v>1.885733333333334</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K161" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6107,40 +6033,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.882</v>
+        <v>1.872</v>
       </c>
       <c r="C162" t="n">
-        <v>1.894</v>
+        <v>1.928</v>
       </c>
       <c r="D162" t="n">
-        <v>1.894</v>
+        <v>1.928</v>
       </c>
       <c r="E162" t="n">
-        <v>1.881</v>
+        <v>1.872</v>
       </c>
       <c r="F162" t="n">
-        <v>28122.0253</v>
+        <v>914434.33808558</v>
       </c>
       <c r="G162" t="n">
-        <v>1.886266666666667</v>
+        <v>1.8862</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="K162" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6150,7 +6068,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.894</v>
+        <v>1.882</v>
       </c>
       <c r="C163" t="n">
         <v>1.894</v>
@@ -6159,13 +6077,13 @@
         <v>1.894</v>
       </c>
       <c r="E163" t="n">
-        <v>1.894</v>
+        <v>1.881</v>
       </c>
       <c r="F163" t="n">
-        <v>159394</v>
+        <v>28122.0253</v>
       </c>
       <c r="G163" t="n">
-        <v>1.88625</v>
+        <v>1.886266666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6174,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6194,19 +6106,19 @@
         <v>1.894</v>
       </c>
       <c r="C164" t="n">
-        <v>1.881</v>
+        <v>1.894</v>
       </c>
       <c r="D164" t="n">
         <v>1.894</v>
       </c>
       <c r="E164" t="n">
-        <v>1.881</v>
+        <v>1.894</v>
       </c>
       <c r="F164" t="n">
-        <v>71720</v>
+        <v>159394</v>
       </c>
       <c r="G164" t="n">
-        <v>1.886183333333334</v>
+        <v>1.88625</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6215,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6232,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.882</v>
+        <v>1.894</v>
       </c>
       <c r="C165" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="D165" t="n">
-        <v>1.882</v>
+        <v>1.894</v>
       </c>
       <c r="E165" t="n">
-        <v>1.882</v>
+        <v>1.881</v>
       </c>
       <c r="F165" t="n">
-        <v>45000</v>
+        <v>71720</v>
       </c>
       <c r="G165" t="n">
-        <v>1.886233333333334</v>
+        <v>1.886183333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6256,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6285,10 +6185,10 @@
         <v>1.882</v>
       </c>
       <c r="F166" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="G166" t="n">
-        <v>1.885933333333334</v>
+        <v>1.886233333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6297,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6326,10 +6220,10 @@
         <v>1.882</v>
       </c>
       <c r="F167" t="n">
-        <v>102417.0779</v>
+        <v>60000</v>
       </c>
       <c r="G167" t="n">
-        <v>1.88565</v>
+        <v>1.885933333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6338,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6355,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.887</v>
+        <v>1.882</v>
       </c>
       <c r="C168" t="n">
-        <v>1.887</v>
+        <v>1.882</v>
       </c>
       <c r="D168" t="n">
-        <v>1.887</v>
+        <v>1.882</v>
       </c>
       <c r="E168" t="n">
-        <v>1.887</v>
+        <v>1.882</v>
       </c>
       <c r="F168" t="n">
-        <v>444</v>
+        <v>102417.0779</v>
       </c>
       <c r="G168" t="n">
-        <v>1.885616666666667</v>
+        <v>1.88565</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6379,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6408,10 +6290,10 @@
         <v>1.887</v>
       </c>
       <c r="F169" t="n">
-        <v>35076</v>
+        <v>444</v>
       </c>
       <c r="G169" t="n">
-        <v>1.885583333333334</v>
+        <v>1.885616666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6420,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6437,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="C170" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="D170" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="E170" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="F170" t="n">
-        <v>38344</v>
+        <v>35076</v>
       </c>
       <c r="G170" t="n">
-        <v>1.885600000000001</v>
+        <v>1.885583333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6461,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6478,19 +6348,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="C171" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="D171" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="E171" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="F171" t="n">
-        <v>444</v>
+        <v>38344</v>
       </c>
       <c r="G171" t="n">
         <v>1.885600000000001</v>
@@ -6502,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6519,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.896</v>
+        <v>1.893</v>
       </c>
       <c r="C172" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="D172" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="E172" t="n">
-        <v>1.896</v>
+        <v>1.893</v>
       </c>
       <c r="F172" t="n">
-        <v>430043.6583</v>
+        <v>444</v>
       </c>
       <c r="G172" t="n">
-        <v>1.885716666666667</v>
+        <v>1.885600000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6543,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6560,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C173" t="n">
         <v>1.9</v>
       </c>
-      <c r="C173" t="n">
-        <v>1.909</v>
-      </c>
       <c r="D173" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E173" t="n">
-        <v>1.893</v>
+        <v>1.896</v>
       </c>
       <c r="F173" t="n">
-        <v>276432.898079371</v>
+        <v>430043.6583</v>
       </c>
       <c r="G173" t="n">
-        <v>1.885966666666667</v>
+        <v>1.885716666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6584,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6601,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="C174" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="D174" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="E174" t="n">
-        <v>1.898</v>
+        <v>1.893</v>
       </c>
       <c r="F174" t="n">
-        <v>63815.4929</v>
+        <v>276432.898079371</v>
       </c>
       <c r="G174" t="n">
-        <v>1.885950000000001</v>
+        <v>1.885966666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6625,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6642,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.911</v>
+        <v>1.898</v>
       </c>
       <c r="C175" t="n">
-        <v>1.903</v>
+        <v>1.898</v>
       </c>
       <c r="D175" t="n">
-        <v>1.919</v>
+        <v>1.898</v>
       </c>
       <c r="E175" t="n">
-        <v>1.903</v>
+        <v>1.898</v>
       </c>
       <c r="F175" t="n">
-        <v>143584.753494215</v>
+        <v>63815.4929</v>
       </c>
       <c r="G175" t="n">
-        <v>1.886000000000001</v>
+        <v>1.885950000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6666,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6683,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.907</v>
+        <v>1.911</v>
       </c>
       <c r="C176" t="n">
-        <v>1.854</v>
+        <v>1.903</v>
       </c>
       <c r="D176" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="E176" t="n">
-        <v>1.854</v>
+        <v>1.903</v>
       </c>
       <c r="F176" t="n">
-        <v>1304215.2478</v>
+        <v>143584.753494215</v>
       </c>
       <c r="G176" t="n">
-        <v>1.885316666666667</v>
+        <v>1.886000000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6707,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6724,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.914</v>
+        <v>1.907</v>
       </c>
       <c r="C177" t="n">
-        <v>1.923</v>
+        <v>1.854</v>
       </c>
       <c r="D177" t="n">
-        <v>1.923</v>
+        <v>1.913</v>
       </c>
       <c r="E177" t="n">
-        <v>1.914</v>
+        <v>1.854</v>
       </c>
       <c r="F177" t="n">
-        <v>28625.249574986</v>
+        <v>1304215.2478</v>
       </c>
       <c r="G177" t="n">
-        <v>1.885800000000001</v>
+        <v>1.885316666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6748,16 +6582,10 @@
         <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>1.027760472610097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6765,28 +6593,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.89</v>
+        <v>1.914</v>
       </c>
       <c r="C178" t="n">
-        <v>1.89</v>
+        <v>1.923</v>
       </c>
       <c r="D178" t="n">
-        <v>1.89</v>
+        <v>1.923</v>
       </c>
       <c r="E178" t="n">
-        <v>1.89</v>
+        <v>1.914</v>
       </c>
       <c r="F178" t="n">
-        <v>13320</v>
+        <v>28625.249574986</v>
       </c>
       <c r="G178" t="n">
-        <v>1.885883333333334</v>
+        <v>1.885800000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6800,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.909</v>
+        <v>1.89</v>
       </c>
       <c r="C179" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D179" t="n">
-        <v>1.925</v>
+        <v>1.89</v>
       </c>
       <c r="E179" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F179" t="n">
-        <v>107901.165004389</v>
+        <v>13320</v>
       </c>
       <c r="G179" t="n">
-        <v>1.885983333333334</v>
+        <v>1.885883333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6835,28 +6663,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="C180" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="D180" t="n">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="E180" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="F180" t="n">
-        <v>23203.8769</v>
+        <v>107901.165004389</v>
       </c>
       <c r="G180" t="n">
-        <v>1.885766666666667</v>
+        <v>1.885983333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -6873,19 +6701,19 @@
         <v>1.88</v>
       </c>
       <c r="C181" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="D181" t="n">
         <v>1.88</v>
       </c>
       <c r="E181" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="F181" t="n">
-        <v>155399.1285</v>
+        <v>23203.8769</v>
       </c>
       <c r="G181" t="n">
-        <v>1.885466666666667</v>
+        <v>1.885766666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6905,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="C182" t="n">
         <v>1.876</v>
       </c>
       <c r="D182" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="E182" t="n">
         <v>1.876</v>
       </c>
       <c r="F182" t="n">
-        <v>21331.1872</v>
+        <v>155399.1285</v>
       </c>
       <c r="G182" t="n">
-        <v>1.885333333333334</v>
+        <v>1.885466666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6952,10 +6780,10 @@
         <v>1.876</v>
       </c>
       <c r="F183" t="n">
-        <v>19793.843</v>
+        <v>21331.1872</v>
       </c>
       <c r="G183" t="n">
-        <v>1.885266666666667</v>
+        <v>1.885333333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6987,10 +6815,10 @@
         <v>1.876</v>
       </c>
       <c r="F184" t="n">
-        <v>13447.61</v>
+        <v>19793.843</v>
       </c>
       <c r="G184" t="n">
-        <v>1.885200000000001</v>
+        <v>1.885266666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7013,19 +6841,19 @@
         <v>1.876</v>
       </c>
       <c r="C185" t="n">
-        <v>1.867</v>
+        <v>1.876</v>
       </c>
       <c r="D185" t="n">
         <v>1.876</v>
       </c>
       <c r="E185" t="n">
-        <v>1.857</v>
+        <v>1.876</v>
       </c>
       <c r="F185" t="n">
-        <v>269877.972</v>
+        <v>13447.61</v>
       </c>
       <c r="G185" t="n">
-        <v>1.885050000000001</v>
+        <v>1.885200000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7045,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.866</v>
+        <v>1.876</v>
       </c>
       <c r="C186" t="n">
-        <v>1.853</v>
+        <v>1.867</v>
       </c>
       <c r="D186" t="n">
-        <v>1.866</v>
+        <v>1.876</v>
       </c>
       <c r="E186" t="n">
-        <v>1.853</v>
+        <v>1.857</v>
       </c>
       <c r="F186" t="n">
-        <v>560515.7881</v>
+        <v>269877.972</v>
       </c>
       <c r="G186" t="n">
-        <v>1.884650000000001</v>
+        <v>1.885050000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7083,19 +6911,19 @@
         <v>1.866</v>
       </c>
       <c r="C187" t="n">
-        <v>1.866</v>
+        <v>1.853</v>
       </c>
       <c r="D187" t="n">
         <v>1.866</v>
       </c>
       <c r="E187" t="n">
-        <v>1.866</v>
+        <v>1.853</v>
       </c>
       <c r="F187" t="n">
-        <v>13320</v>
+        <v>560515.7881</v>
       </c>
       <c r="G187" t="n">
-        <v>1.884233333333334</v>
+        <v>1.884650000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7115,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="C188" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="D188" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="E188" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="F188" t="n">
-        <v>1690.3569</v>
+        <v>13320</v>
       </c>
       <c r="G188" t="n">
-        <v>1.883850000000001</v>
+        <v>1.884233333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7150,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="C189" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="D189" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="E189" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="F189" t="n">
-        <v>570</v>
+        <v>1690.3569</v>
       </c>
       <c r="G189" t="n">
-        <v>1.883383333333334</v>
+        <v>1.883850000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7185,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="C190" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="D190" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="E190" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="F190" t="n">
-        <v>6868.1364</v>
+        <v>570</v>
       </c>
       <c r="G190" t="n">
-        <v>1.883000000000001</v>
+        <v>1.883383333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7232,10 +7060,10 @@
         <v>1.87</v>
       </c>
       <c r="F191" t="n">
-        <v>160155.9564</v>
+        <v>6868.1364</v>
       </c>
       <c r="G191" t="n">
-        <v>1.882600000000001</v>
+        <v>1.883000000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7267,19 +7095,23 @@
         <v>1.87</v>
       </c>
       <c r="F192" t="n">
-        <v>312975.9072</v>
+        <v>160155.9564</v>
       </c>
       <c r="G192" t="n">
-        <v>1.882200000000001</v>
+        <v>1.882600000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.87</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -7290,22 +7122,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="C193" t="n">
-        <v>1.856</v>
+        <v>1.87</v>
       </c>
       <c r="D193" t="n">
-        <v>1.866</v>
+        <v>1.87</v>
       </c>
       <c r="E193" t="n">
-        <v>1.856</v>
+        <v>1.87</v>
       </c>
       <c r="F193" t="n">
-        <v>133950.1989</v>
+        <v>312975.9072</v>
       </c>
       <c r="G193" t="n">
-        <v>1.881566666666667</v>
+        <v>1.882200000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7314,8 +7146,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7325,32 +7163,38 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F194" t="n">
+        <v>133950.1989</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.881566666666667</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
         <v>1.87</v>
       </c>
-      <c r="C194" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F194" t="n">
-        <v>30276.8023</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1.881083333333334</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7360,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="C195" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="D195" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="E195" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="F195" t="n">
-        <v>17714.0201</v>
+        <v>30276.8023</v>
       </c>
       <c r="G195" t="n">
-        <v>1.880866666666667</v>
+        <v>1.881083333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7384,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7407,10 +7257,10 @@
         <v>1.882</v>
       </c>
       <c r="F196" t="n">
-        <v>40595.2532</v>
+        <v>17714.0201</v>
       </c>
       <c r="G196" t="n">
-        <v>1.880666666666667</v>
+        <v>1.880866666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7419,8 +7269,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7430,32 +7286,38 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F197" t="n">
+        <v>40595.2532</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.880666666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
         <v>1.87</v>
       </c>
-      <c r="C197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F197" t="n">
-        <v>424983.5468</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1.880316666666668</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7465,22 +7327,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="C198" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="D198" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="E198" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="F198" t="n">
-        <v>823.4099</v>
+        <v>424983.5468</v>
       </c>
       <c r="G198" t="n">
-        <v>1.880283333333334</v>
+        <v>1.880316666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7489,8 +7351,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7368,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.87</v>
+        <v>1.889</v>
       </c>
       <c r="C199" t="n">
         <v>1.889</v>
@@ -7509,10 +7377,10 @@
         <v>1.889</v>
       </c>
       <c r="E199" t="n">
-        <v>1.87</v>
+        <v>1.889</v>
       </c>
       <c r="F199" t="n">
-        <v>489207.8417</v>
+        <v>823.4099</v>
       </c>
       <c r="G199" t="n">
         <v>1.880283333333334</v>
@@ -7524,8 +7392,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7535,7 +7409,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="C200" t="n">
         <v>1.889</v>
@@ -7544,10 +7418,10 @@
         <v>1.889</v>
       </c>
       <c r="E200" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="F200" t="n">
-        <v>16850.1516</v>
+        <v>489207.8417</v>
       </c>
       <c r="G200" t="n">
         <v>1.880283333333334</v>
@@ -7559,8 +7433,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7573,19 +7453,19 @@
         <v>1.889</v>
       </c>
       <c r="C201" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="D201" t="n">
         <v>1.889</v>
       </c>
       <c r="E201" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="F201" t="n">
-        <v>69249.0968</v>
+        <v>16850.1516</v>
       </c>
       <c r="G201" t="n">
-        <v>1.880016666666667</v>
+        <v>1.880283333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7594,8 +7474,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7605,33 +7491,80 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="C202" t="n">
         <v>1.881</v>
       </c>
       <c r="D202" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="E202" t="n">
         <v>1.881</v>
       </c>
       <c r="F202" t="n">
+        <v>69249.0968</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.880016666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F203" t="n">
         <v>20457.1351</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G203" t="n">
         <v>1.879866666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>632900.174</v>
       </c>
       <c r="G2" t="n">
+        <v>1.893333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.901200000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>50787.708</v>
       </c>
       <c r="G3" t="n">
+        <v>1.894600000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.901083333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3311.7886</v>
       </c>
       <c r="G4" t="n">
+        <v>1.895866666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.900900000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>141249.4792</v>
       </c>
       <c r="G5" t="n">
+        <v>1.895866666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.900783333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>215827.6552</v>
       </c>
       <c r="G6" t="n">
+        <v>1.897533333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.900950000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>200000</v>
       </c>
       <c r="G7" t="n">
+        <v>1.900133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.901250000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>100000</v>
       </c>
       <c r="G8" t="n">
+        <v>1.902733333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.901733333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>50000</v>
       </c>
       <c r="G9" t="n">
+        <v>1.905333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.902133333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>103257.3526</v>
       </c>
       <c r="G10" t="n">
+        <v>1.907866666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.902533333333336</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
+        <v>1.9104</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.902933333333336</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
+        <v>1.911933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.903316666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>129089.8888</v>
       </c>
       <c r="G13" t="n">
+        <v>1.912199999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.903516666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>97170</v>
       </c>
       <c r="G14" t="n">
+        <v>1.914266666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.903850000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>48590</v>
       </c>
       <c r="G15" t="n">
+        <v>1.914666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.904150000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>31919.8888</v>
       </c>
       <c r="G16" t="n">
+        <v>1.914799999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.904516666666669</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>95329.5641</v>
       </c>
       <c r="G17" t="n">
+        <v>1.917333333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.905000000000002</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>291988.9447</v>
       </c>
       <c r="G18" t="n">
+        <v>1.917666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.904900000000002</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>19051.7155</v>
       </c>
       <c r="G19" t="n">
+        <v>1.917999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.905200000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>15080</v>
       </c>
       <c r="G20" t="n">
+        <v>1.918933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.905266666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>9190</v>
       </c>
       <c r="G21" t="n">
+        <v>1.919066666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.905466666666669</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
+        <v>1.918933333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.905833333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3000</v>
       </c>
       <c r="G23" t="n">
+        <v>1.9188</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.906283333333335</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>105750</v>
       </c>
       <c r="G24" t="n">
+        <v>1.918666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.906650000000002</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>127891.4579</v>
       </c>
       <c r="G25" t="n">
+        <v>1.9186</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.907016666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>44131.6656</v>
       </c>
       <c r="G26" t="n">
+        <v>1.9186</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.907566666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4347.647</v>
       </c>
       <c r="G27" t="n">
+        <v>1.917866666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.907766666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>377342.3966</v>
       </c>
       <c r="G28" t="n">
+        <v>1.918066666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.908016666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5669.1651</v>
       </c>
       <c r="G29" t="n">
+        <v>1.918533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.908233333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>100000</v>
       </c>
       <c r="G30" t="n">
+        <v>1.918533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.908400000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>195648.7599</v>
       </c>
       <c r="G31" t="n">
+        <v>1.918466666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.908566666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>752.8158</v>
       </c>
       <c r="G32" t="n">
+        <v>1.918266666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.908983333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>41990.5904</v>
       </c>
       <c r="G33" t="n">
+        <v>1.918666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.909350000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>21370</v>
       </c>
       <c r="G34" t="n">
+        <v>1.918666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.909616666666669</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>21370</v>
       </c>
       <c r="G35" t="n">
+        <v>1.918133333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.909600000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>400000</v>
       </c>
       <c r="G36" t="n">
+        <v>1.917866666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.909450000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>67057.9145</v>
       </c>
       <c r="G37" t="n">
+        <v>1.917733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.909450000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>39808.1272</v>
       </c>
       <c r="G38" t="n">
+        <v>1.917866666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.909733333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>273232.141</v>
       </c>
       <c r="G39" t="n">
+        <v>1.917733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.909950000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>836048.0004</v>
       </c>
       <c r="G40" t="n">
+        <v>1.916933333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.909783333333336</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>79273.7822</v>
       </c>
       <c r="G41" t="n">
+        <v>1.916733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.909783333333336</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>8806.5075</v>
       </c>
       <c r="G42" t="n">
+        <v>1.917266666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.910000000000003</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>58239.4724</v>
       </c>
       <c r="G43" t="n">
+        <v>1.9176</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.910383333333336</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>7000</v>
       </c>
       <c r="G44" t="n">
+        <v>1.9174</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.910883333333336</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2500</v>
       </c>
       <c r="G45" t="n">
+        <v>1.917733333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.911383333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>115309.54</v>
       </c>
       <c r="G46" t="n">
+        <v>1.917333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.911383333333336</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4573943.4331</v>
       </c>
       <c r="G47" t="n">
+        <v>1.9108</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.909933333333336</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>17585.3433</v>
       </c>
       <c r="G48" t="n">
+        <v>1.909666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.910150000000003</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>69740</v>
       </c>
       <c r="G49" t="n">
+        <v>1.9094</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.910483333333336</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>9000</v>
       </c>
       <c r="G50" t="n">
+        <v>1.909066666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.910500000000003</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>19940.9175</v>
       </c>
       <c r="G51" t="n">
+        <v>1.908666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.910783333333336</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>19950</v>
       </c>
       <c r="G52" t="n">
+        <v>1.907666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.911116666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1174.0385</v>
       </c>
       <c r="G53" t="n">
+        <v>1.907066666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.911616666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>65000</v>
       </c>
       <c r="G54" t="n">
+        <v>1.906733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.912116666666669</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>59724.917</v>
       </c>
       <c r="G55" t="n">
+        <v>1.906066666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.912366666666669</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>16304.4741</v>
       </c>
       <c r="G56" t="n">
+        <v>1.903333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.912266666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>261</v>
       </c>
       <c r="G57" t="n">
+        <v>1.902333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.912350000000002</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>29448.6802</v>
       </c>
       <c r="G58" t="n">
+        <v>1.900266666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.912033333333336</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>29238.9207</v>
       </c>
       <c r="G59" t="n">
+        <v>1.898933333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.912283333333336</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>392177.2646</v>
       </c>
       <c r="G60" t="n">
+        <v>1.898266666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.912300000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>49679.9636</v>
       </c>
       <c r="G61" t="n">
+        <v>1.898666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.912316666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>120207.4906</v>
       </c>
       <c r="G62" t="n">
+        <v>1.903866666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.912566666666669</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>12480</v>
       </c>
       <c r="G63" t="n">
+        <v>1.904266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.912566666666669</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>886039.6485</v>
       </c>
       <c r="G64" t="n">
+        <v>1.904799999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.912716666666669</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1950724.3264</v>
       </c>
       <c r="G65" t="n">
+        <v>1.903466666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.912400000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>24997.2203</v>
       </c>
       <c r="G66" t="n">
+        <v>1.903866666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.912366666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>91852.1848</v>
       </c>
       <c r="G67" t="n">
+        <v>1.904066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.912100000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>131038.8129</v>
       </c>
       <c r="G68" t="n">
+        <v>1.9036</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.911833333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>6984</v>
       </c>
       <c r="G69" t="n">
+        <v>1.903799999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.911733333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>235980</v>
       </c>
       <c r="G70" t="n">
+        <v>1.904333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.911483333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>67644.98759999999</v>
       </c>
       <c r="G71" t="n">
+        <v>1.906266666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.911233333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>109335.0124</v>
       </c>
       <c r="G72" t="n">
+        <v>1.906466666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.910983333333335</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>59000</v>
       </c>
       <c r="G73" t="n">
+        <v>1.907733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.910916666666669</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>47606.7083</v>
       </c>
       <c r="G74" t="n">
+        <v>1.907733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.910650000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>64139.8652</v>
       </c>
       <c r="G75" t="n">
+        <v>1.907733333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.910566666666669</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>173086.049</v>
       </c>
       <c r="G76" t="n">
+        <v>1.907933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.910600000000002</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>485996.3171</v>
       </c>
       <c r="G77" t="n">
+        <v>1.909133333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.910516666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>20893.9073</v>
       </c>
       <c r="G78" t="n">
+        <v>1.908533333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.910283333333336</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>526386.5196</v>
       </c>
       <c r="G79" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.910216666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>32083.1793</v>
       </c>
       <c r="G80" t="n">
+        <v>1.909333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.910000000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>21991.9451</v>
       </c>
       <c r="G81" t="n">
+        <v>1.9088</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.909800000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>21991.9451</v>
       </c>
       <c r="G82" t="n">
+        <v>1.908933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.909600000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>288483.2335</v>
       </c>
       <c r="G83" t="n">
+        <v>1.908399999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.909233333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>8256.946900000001</v>
       </c>
       <c r="G84" t="n">
+        <v>1.907199999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.908866666666669</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>261</v>
       </c>
       <c r="G85" t="n">
+        <v>1.907199999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.908633333333336</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>233835.4653</v>
       </c>
       <c r="G86" t="n">
+        <v>1.906333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.908166666666669</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>208235.1922</v>
       </c>
       <c r="G87" t="n">
+        <v>1.905733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.907950000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>228367.8248</v>
       </c>
       <c r="G88" t="n">
+        <v>1.905666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.907816666666669</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>405465.3679</v>
       </c>
       <c r="G89" t="n">
+        <v>1.905399999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.907366666666669</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>18550.6278</v>
       </c>
       <c r="G90" t="n">
+        <v>1.904466666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.907050000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>189302.7214</v>
       </c>
       <c r="G91" t="n">
+        <v>1.902999999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.906733333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>515411.2124</v>
       </c>
       <c r="G92" t="n">
+        <v>1.901666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.906366666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>530827.1402</v>
       </c>
       <c r="G93" t="n">
+        <v>1.901799999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.906066666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>90018.5316</v>
       </c>
       <c r="G94" t="n">
+        <v>1.901133333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.905833333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>423330</v>
       </c>
       <c r="G95" t="n">
+        <v>1.900466666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.905583333333335</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>28425.0884</v>
       </c>
       <c r="G96" t="n">
+        <v>1.900133333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.905366666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>1332</v>
       </c>
       <c r="G97" t="n">
+        <v>1.899799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.905116666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>2220</v>
       </c>
       <c r="G98" t="n">
+        <v>1.899866666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.904733333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>20669.282</v>
       </c>
       <c r="G99" t="n">
+        <v>1.899866666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.904400000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>15863.118</v>
       </c>
       <c r="G100" t="n">
+        <v>1.899333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.904233333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>17557.6</v>
       </c>
       <c r="G101" t="n">
+        <v>1.899666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.903900000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1198758.2417</v>
       </c>
       <c r="G102" t="n">
+        <v>1.899733333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.903566666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>835791.5314</v>
       </c>
       <c r="G103" t="n">
+        <v>1.898599999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.903066666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>88371.4463</v>
       </c>
       <c r="G104" t="n">
+        <v>1.898533333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.902650000000002</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>654158.674</v>
       </c>
       <c r="G105" t="n">
+        <v>1.897799999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.902066666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>232740.0633</v>
       </c>
       <c r="G106" t="n">
+        <v>1.896666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.901566666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4782.0837</v>
       </c>
       <c r="G107" t="n">
+        <v>1.896799999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.902866666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>444</v>
       </c>
       <c r="G108" t="n">
+        <v>1.896599999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.902800000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>8780</v>
       </c>
       <c r="G109" t="n">
+        <v>1.895866666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.902450000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>184228.9236</v>
       </c>
       <c r="G110" t="n">
+        <v>1.895133333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.902100000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>47750</v>
       </c>
       <c r="G111" t="n">
+        <v>1.894733333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.901883333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>40159.4845</v>
       </c>
       <c r="G112" t="n">
+        <v>1.893933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.901683333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>56350.5155</v>
       </c>
       <c r="G113" t="n">
+        <v>1.893399999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.901316666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>41877.3992</v>
       </c>
       <c r="G114" t="n">
+        <v>1.892999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.900966666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>444</v>
       </c>
       <c r="G115" t="n">
+        <v>1.892933333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.900950000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>131763.1355</v>
       </c>
       <c r="G116" t="n">
+        <v>1.892933333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.901300000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>444</v>
       </c>
       <c r="G117" t="n">
+        <v>1.892599999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.901133333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>165400</v>
       </c>
       <c r="G118" t="n">
+        <v>1.892866666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.901216666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>40908.4444</v>
       </c>
       <c r="G119" t="n">
+        <v>1.892199999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.900966666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>28470</v>
       </c>
       <c r="G120" t="n">
+        <v>1.892799999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.900700000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>78497.606</v>
       </c>
       <c r="G121" t="n">
+        <v>1.893733333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.900333333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>467621.5227</v>
       </c>
       <c r="G122" t="n">
+        <v>1.893333333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.900233333333335</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>215994.709</v>
       </c>
       <c r="G123" t="n">
+        <v>1.892333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.899816666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>283903.975906382</v>
       </c>
       <c r="G124" t="n">
+        <v>1.891733333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.899183333333335</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>62904.9823</v>
       </c>
       <c r="G125" t="n">
+        <v>1.891133333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.899016666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>900460.3003</v>
       </c>
       <c r="G126" t="n">
+        <v>1.890266666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.898483333333335</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>265080.1927</v>
       </c>
       <c r="G127" t="n">
+        <v>1.889199999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.897966666666668</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>2220</v>
       </c>
       <c r="G128" t="n">
+        <v>1.889066666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.897683333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>184352.9565</v>
       </c>
       <c r="G129" t="n">
+        <v>1.888999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.897266666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>22162.336428933</v>
       </c>
       <c r="G130" t="n">
+        <v>1.888666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.897033333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>27249.682</v>
       </c>
       <c r="G131" t="n">
+        <v>1.888199999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.896783333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>42841.4745</v>
       </c>
       <c r="G132" t="n">
+        <v>1.888133333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.896550000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>24790.4371</v>
       </c>
       <c r="G133" t="n">
+        <v>1.888133333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.896316666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>10028.8403</v>
       </c>
       <c r="G134" t="n">
+        <v>1.888733333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.896216666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>70235.0815</v>
       </c>
       <c r="G135" t="n">
+        <v>1.889066666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.896033333333335</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>28870.3941</v>
       </c>
       <c r="G136" t="n">
+        <v>1.889199999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.895650000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>143216.1881</v>
       </c>
       <c r="G137" t="n">
+        <v>1.889199999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.895250000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>611780.3872999999</v>
       </c>
       <c r="G138" t="n">
+        <v>1.889666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.895100000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>32030.3341</v>
       </c>
       <c r="G139" t="n">
+        <v>1.890399999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.894783333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>55000</v>
       </c>
       <c r="G140" t="n">
+        <v>1.890999999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.894433333333335</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>16598.6094</v>
       </c>
       <c r="G141" t="n">
+        <v>1.891866666666665</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.894250000000001</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>278023.5202</v>
       </c>
       <c r="G142" t="n">
+        <v>1.893199999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.894033333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>3636.444</v>
       </c>
       <c r="G143" t="n">
+        <v>1.893133333333332</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.893866666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>6165.2693</v>
       </c>
       <c r="G144" t="n">
+        <v>1.892933333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.893700000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>21116.4732</v>
       </c>
       <c r="G145" t="n">
+        <v>1.892666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.893400000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>63647.9118</v>
       </c>
       <c r="G146" t="n">
+        <v>1.891666666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.893116666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>2664</v>
       </c>
       <c r="G147" t="n">
+        <v>1.890999999999999</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.892866666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>341733.257</v>
       </c>
       <c r="G148" t="n">
+        <v>1.889799999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.892350000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>2664</v>
       </c>
       <c r="G149" t="n">
+        <v>1.888066666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.891883333333335</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>172072.5517</v>
       </c>
       <c r="G150" t="n">
+        <v>1.885666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.891333333333335</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,25 @@
         <v>43608.169</v>
       </c>
       <c r="G151" t="n">
+        <v>1.883466666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.890766666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6157,29 @@
         <v>20136.2957</v>
       </c>
       <c r="G152" t="n">
+        <v>1.8814</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.890183333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6203,29 @@
         <v>648077.2571</v>
       </c>
       <c r="G153" t="n">
+        <v>1.878666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.889316666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6249,29 @@
         <v>341373.3969</v>
       </c>
       <c r="G154" t="n">
+        <v>1.875933333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.888483333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6295,29 @@
         <v>125342.951</v>
       </c>
       <c r="G155" t="n">
+        <v>1.8746</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.887966666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6341,29 @@
         <v>21827.7614</v>
       </c>
       <c r="G156" t="n">
+        <v>1.873333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.887550000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6387,29 @@
         <v>14922.7144</v>
       </c>
       <c r="G157" t="n">
+        <v>1.8722</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.887133333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6433,29 @@
         <v>133950.1989</v>
       </c>
       <c r="G158" t="n">
+        <v>1.871533333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.886783333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6479,29 @@
         <v>139746.0645</v>
       </c>
       <c r="G159" t="n">
+        <v>1.870866666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.886450000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6525,27 @@
         <v>211848.0578</v>
       </c>
       <c r="G160" t="n">
+        <v>1.8702</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.886116666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6569,29 @@
         <v>644310</v>
       </c>
       <c r="G161" t="n">
+        <v>1.870133333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.885733333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6615,29 @@
         <v>914434.33808558</v>
       </c>
       <c r="G162" t="n">
+        <v>1.873066666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.8862</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6661,27 @@
         <v>28122.0253</v>
       </c>
       <c r="G163" t="n">
+        <v>1.874266666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.886266666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6705,27 @@
         <v>159394</v>
       </c>
       <c r="G164" t="n">
+        <v>1.875999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.88625</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6749,27 @@
         <v>71720</v>
       </c>
       <c r="G165" t="n">
+        <v>1.877199999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.886183333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6793,27 @@
         <v>45000</v>
       </c>
       <c r="G166" t="n">
+        <v>1.878533333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.886233333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6837,27 @@
         <v>60000</v>
       </c>
       <c r="G167" t="n">
+        <v>1.879799999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.885933333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6881,27 @@
         <v>102417.0779</v>
       </c>
       <c r="G168" t="n">
+        <v>1.881933333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.88565</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6925,29 @@
         <v>444</v>
       </c>
       <c r="G169" t="n">
+        <v>1.884399999999999</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.885616666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6971,27 @@
         <v>35076</v>
       </c>
       <c r="G170" t="n">
+        <v>1.885599999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.885583333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7015,27 @@
         <v>38344</v>
       </c>
       <c r="G171" t="n">
+        <v>1.886933333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.885600000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7059,27 @@
         <v>444</v>
       </c>
       <c r="G172" t="n">
+        <v>1.887799999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.885600000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7103,27 @@
         <v>430043.6583</v>
       </c>
       <c r="G173" t="n">
+        <v>1.889133333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.885716666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7147,27 @@
         <v>276432.898079371</v>
       </c>
       <c r="G174" t="n">
+        <v>1.891066666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.885966666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7191,27 @@
         <v>63815.4929</v>
       </c>
       <c r="G175" t="n">
+        <v>1.892266666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.885950000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7235,27 @@
         <v>143584.753494215</v>
       </c>
       <c r="G176" t="n">
+        <v>1.893999999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.886000000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7279,27 @@
         <v>1304215.2478</v>
       </c>
       <c r="G177" t="n">
+        <v>1.889066666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.885316666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7323,27 @@
         <v>28625.249574986</v>
       </c>
       <c r="G178" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.885800000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7367,27 @@
         <v>13320</v>
       </c>
       <c r="G179" t="n">
+        <v>1.890733333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.885883333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7411,27 @@
         <v>107901.165004389</v>
       </c>
       <c r="G180" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.885983333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7455,27 @@
         <v>23203.8769</v>
       </c>
       <c r="G181" t="n">
+        <v>1.891866666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.885766666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7499,27 @@
         <v>155399.1285</v>
       </c>
       <c r="G182" t="n">
+        <v>1.891466666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.885466666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7543,27 @@
         <v>21331.1872</v>
       </c>
       <c r="G183" t="n">
+        <v>1.891066666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.885333333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7587,27 @@
         <v>19793.843</v>
       </c>
       <c r="G184" t="n">
+        <v>1.890333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.885266666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7631,27 @@
         <v>13447.61</v>
       </c>
       <c r="G185" t="n">
+        <v>1.8896</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.885200000000001</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7675,27 @@
         <v>269877.972</v>
       </c>
       <c r="G186" t="n">
+        <v>1.888066666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.885050000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7719,27 @@
         <v>560515.7881</v>
       </c>
       <c r="G187" t="n">
+        <v>1.8854</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.884650000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7763,29 @@
         <v>13320</v>
       </c>
       <c r="G188" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.884233333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7809,29 @@
         <v>1690.3569</v>
       </c>
       <c r="G189" t="n">
+        <v>1.880533333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.883850000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7855,29 @@
         <v>570</v>
       </c>
       <c r="G190" t="n">
+        <v>1.8784</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.883383333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7901,29 @@
         <v>6868.1364</v>
       </c>
       <c r="G191" t="n">
+        <v>1.8762</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.883000000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,22 +7947,29 @@
         <v>160155.9564</v>
       </c>
       <c r="G192" t="n">
+        <v>1.877266666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.882600000000001</v>
       </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
         <v>1.87</v>
       </c>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7137,24 +7993,29 @@
         <v>312975.9072</v>
       </c>
       <c r="G193" t="n">
+        <v>1.873733333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.882200000000001</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="n">
         <v>1.87</v>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,24 +8039,29 @@
         <v>133950.1989</v>
       </c>
       <c r="G194" t="n">
+        <v>1.871466666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.881566666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="n">
         <v>1.87</v>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,24 +8085,29 @@
         <v>30276.8023</v>
       </c>
       <c r="G195" t="n">
+        <v>1.869466666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.881083333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>1.856</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,24 +8131,29 @@
         <v>17714.0201</v>
       </c>
       <c r="G196" t="n">
+        <v>1.869600000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.880866666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="n">
         <v>1.87</v>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7301,24 +8177,27 @@
         <v>40595.2532</v>
       </c>
       <c r="G197" t="n">
+        <v>1.870000000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.880666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,24 +8221,27 @@
         <v>424983.5468</v>
       </c>
       <c r="G198" t="n">
+        <v>1.869600000000001</v>
+      </c>
+      <c r="H198" t="n">
         <v>1.880316666666668</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7383,24 +8265,27 @@
         <v>823.4099</v>
       </c>
       <c r="G199" t="n">
+        <v>1.870466666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>1.880283333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,24 +8309,27 @@
         <v>489207.8417</v>
       </c>
       <c r="G200" t="n">
+        <v>1.871333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>1.880283333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,24 +8353,27 @@
         <v>16850.1516</v>
       </c>
       <c r="G201" t="n">
+        <v>1.8728</v>
+      </c>
+      <c r="H201" t="n">
         <v>1.880283333333334</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7506,24 +8397,27 @@
         <v>69249.0968</v>
       </c>
       <c r="G202" t="n">
+        <v>1.874666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>1.880016666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7547,24 +8441,467 @@
         <v>20457.1351</v>
       </c>
       <c r="G203" t="n">
+        <v>1.875666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>1.879866666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F204" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.8764</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.879716666666667</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10526.5717</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.879716666666667</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3636.6262</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.879333333333334</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.879916666666667</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F207" t="n">
+        <v>20260</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.880066666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.879866666666667</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F208" t="n">
+        <v>265</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.881533333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.880133333333334</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F209" t="n">
+        <v>992282.952331078</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.884066666666666</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.880566666666667</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F210" t="n">
+        <v>225467.8005</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.881516666666667</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F211" t="n">
+        <v>740845.133121479</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.890466666666666</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.882616666666667</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="F212" t="n">
+        <v>139941.922</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.893466666666666</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.883683333333334</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F213" t="n">
+        <v>254</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.8974</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1.885000000000001</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>219662.2963999997</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>180314.6707999997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>323278.9481999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>422927.3591999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>427367.3736999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>402367.3736999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>379313.6451999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>152804.9708999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>653064.3550999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>653064.3550999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>634613.4884999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>525141.4549999997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>251138.2494999997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>137420.4232999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>510415.1728999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-1021612.7037</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-5566772.589500002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-5583077.063600002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7872,2572 +7249,2360 @@
         <v>-8603475.81057745</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F209" t="n">
+        <v>43608.169</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-8647083.97957745</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F210" t="n">
+        <v>20136.2957</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-8626947.683877449</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F211" t="n">
+        <v>648077.2571</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-9275024.94097745</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F209" t="n">
-        <v>43608.169</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-8647083.97957745</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F212" t="n">
+        <v>341373.3969</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-9275024.94097745</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F210" t="n">
-        <v>20136.2957</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-8626947.683877449</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F213" t="n">
+        <v>125342.951</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-9149681.989977451</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F211" t="n">
-        <v>648077.2571</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-9275024.94097745</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F214" t="n">
+        <v>21827.7614</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-9127854.228577452</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F212" t="n">
-        <v>341373.3969</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-9275024.94097745</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14922.7144</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-9112931.514177451</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="F213" t="n">
-        <v>125342.951</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-9149681.989977451</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>133950.1989</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-9112931.514177451</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F214" t="n">
-        <v>21827.7614</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-9127854.228577452</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>139746.0645</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-9112931.514177451</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="C215" t="n">
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C218" t="n">
         <v>1.88</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D218" t="n">
         <v>1.88</v>
       </c>
-      <c r="E215" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F215" t="n">
-        <v>14922.7144</v>
-      </c>
-      <c r="G215" t="n">
+      <c r="E218" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F218" t="n">
+        <v>211848.0578</v>
+      </c>
+      <c r="G218" t="n">
         <v>-9112931.514177451</v>
       </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F216" t="n">
-        <v>133950.1989</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F219" t="n">
+        <v>644310</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-9757241.514177451</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F217" t="n">
-        <v>139746.0645</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F220" t="n">
+        <v>914434.33808558</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-8842807.17609187</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F218" t="n">
-        <v>211848.0578</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28122.0253</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-8870929.20139187</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F219" t="n">
-        <v>644310</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-9757241.514177451</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F222" t="n">
+        <v>159394</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-8870929.20139187</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F220" t="n">
-        <v>914434.33808558</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-8842807.17609187</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F223" t="n">
+        <v>71720</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-8942649.20139187</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
         <v>1.882</v>
       </c>
-      <c r="C221" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F221" t="n">
-        <v>28122.0253</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-8870929.20139187</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="C224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F224" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-8897649.20139187</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F222" t="n">
-        <v>159394</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-8870929.20139187</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F225" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-8897649.20139187</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F223" t="n">
-        <v>71720</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-8942649.20139187</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F226" t="n">
+        <v>102417.0779</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-8897649.20139187</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F224" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F227" t="n">
+        <v>444</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-8897205.20139187</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F225" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F228" t="n">
+        <v>35076</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-8897205.20139187</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F226" t="n">
-        <v>102417.0779</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38344</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-8858861.20139187</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F227" t="n">
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F230" t="n">
         <v>444</v>
       </c>
-      <c r="G227" t="n">
-        <v>-8897205.20139187</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="G230" t="n">
+        <v>-8858417.20139187</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F228" t="n">
-        <v>35076</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-8897205.20139187</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="F231" t="n">
+        <v>430043.6583</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-8428373.543091871</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F229" t="n">
-        <v>38344</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-8858861.20139187</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F232" t="n">
+        <v>276432.898079371</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-8151940.6450125</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F230" t="n">
-        <v>444</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-8858417.20139187</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F233" t="n">
+        <v>63815.4929</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-8215756.1379125</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="F231" t="n">
-        <v>430043.6583</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-8428373.543091871</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F234" t="n">
+        <v>143584.753494215</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-8072171.384418285</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F232" t="n">
-        <v>276432.898079371</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-8151940.6450125</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1304215.2478</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-9376386.632218285</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F233" t="n">
-        <v>63815.4929</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-8215756.1379125</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F236" t="n">
+        <v>28625.249574986</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-9347761.382643299</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F234" t="n">
-        <v>143584.753494215</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-8072171.384418285</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13320</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-9361081.382643299</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1304215.2478</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-9376386.632218285</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F238" t="n">
+        <v>107901.165004389</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-9253180.21763891</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F236" t="n">
-        <v>28625.249574986</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-9347761.382643299</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F239" t="n">
+        <v>23203.8769</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-9276384.09453891</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F237" t="n">
-        <v>13320</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-9361081.382643299</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F240" t="n">
+        <v>155399.1285</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-9431783.22303891</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>107901.165004389</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-9253180.21763891</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F241" t="n">
+        <v>21331.1872</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-9431783.22303891</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F239" t="n">
-        <v>23203.8769</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-9276384.09453891</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F242" t="n">
+        <v>19793.843</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-9431783.22303891</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C240" t="n">
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>1.876</v>
       </c>
-      <c r="D240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E240" t="n">
+      <c r="C243" t="n">
         <v>1.876</v>
       </c>
-      <c r="F240" t="n">
-        <v>155399.1285</v>
-      </c>
-      <c r="G240" t="n">
+      <c r="D243" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F243" t="n">
+        <v>13447.61</v>
+      </c>
+      <c r="G243" t="n">
         <v>-9431783.22303891</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
         <v>1.876</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C244" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D244" t="n">
         <v>1.876</v>
       </c>
-      <c r="D241" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F241" t="n">
-        <v>21331.1872</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="E244" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="F244" t="n">
+        <v>269877.972</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-9701661.195038909</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F242" t="n">
-        <v>19793.843</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F245" t="n">
+        <v>560515.7881</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-10262176.98313891</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F243" t="n">
-        <v>13447.61</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13320</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-10248856.98313891</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E244" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="F244" t="n">
-        <v>269877.972</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-9701661.195038909</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1690.3569</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-10247166.62623891</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
         <v>1.866</v>
       </c>
-      <c r="C245" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D245" t="n">
+      <c r="C248" t="n">
         <v>1.866</v>
       </c>
-      <c r="E245" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F245" t="n">
-        <v>560515.7881</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-10262176.98313891</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="D248" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F248" t="n">
+        <v>570</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-10247736.62623891</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D246" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E246" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F246" t="n">
-        <v>13320</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-10248856.98313891</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6868.1364</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-10240868.48983891</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
         <v>1.87</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C250" t="n">
         <v>1.87</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D250" t="n">
         <v>1.87</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E250" t="n">
         <v>1.87</v>
       </c>
-      <c r="F247" t="n">
-        <v>1690.3569</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-10247166.62623891</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="F250" t="n">
+        <v>160155.9564</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-10240868.48983891</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F248" t="n">
-        <v>570</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-10247736.62623891</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F251" t="n">
+        <v>312975.9072</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-10240868.48983891</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D249" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E249" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F249" t="n">
-        <v>6868.1364</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F252" t="n">
+        <v>133950.1989</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-10374818.68873891</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>1.87</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C253" t="n">
         <v>1.87</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D253" t="n">
         <v>1.87</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E253" t="n">
         <v>1.87</v>
       </c>
-      <c r="F250" t="n">
-        <v>160155.9564</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="F253" t="n">
+        <v>30276.8023</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-10344541.88643891</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F251" t="n">
-        <v>312975.9072</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F254" t="n">
+        <v>17714.0201</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-10326827.86633891</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="F252" t="n">
-        <v>133950.1989</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-10374818.68873891</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F255" t="n">
+        <v>40595.2532</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-10326827.86633891</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
         <v>1.87</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C256" t="n">
         <v>1.87</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D256" t="n">
         <v>1.87</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E256" t="n">
         <v>1.87</v>
       </c>
-      <c r="F253" t="n">
-        <v>30276.8023</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-10344541.88643891</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+      <c r="F256" t="n">
+        <v>424983.5468</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-10751811.41313891</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F254" t="n">
-        <v>17714.0201</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-10326827.86633891</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F257" t="n">
+        <v>823.4099</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-10750988.00323891</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F255" t="n">
-        <v>40595.2532</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-10326827.86633891</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F258" t="n">
+        <v>489207.8417</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-10750988.00323891</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F256" t="n">
-        <v>424983.5468</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-10751811.41313891</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F259" t="n">
+        <v>16850.1516</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-10750988.00323891</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
         <v>1.889</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C260" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D260" t="n">
         <v>1.889</v>
       </c>
-      <c r="D257" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E257" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F257" t="n">
-        <v>823.4099</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+      <c r="E260" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F260" t="n">
+        <v>69249.0968</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-10820237.10003891</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D258" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E258" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F258" t="n">
-        <v>489207.8417</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F261" t="n">
+        <v>20457.1351</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-10820237.10003891</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F259" t="n">
-        <v>16850.1516</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F262" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-10820237.10003891</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C260" t="n">
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
         <v>1.881</v>
       </c>
-      <c r="D260" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E260" t="n">
+      <c r="C263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E263" t="n">
         <v>1.881</v>
       </c>
-      <c r="F260" t="n">
-        <v>69249.0968</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+      <c r="F263" t="n">
+        <v>10526.5717</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-10809710.52833891</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F261" t="n">
-        <v>20457.1351</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3636.6262</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-10809710.52833891</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
         <v>1.881</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C265" t="n">
         <v>1.881</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D265" t="n">
         <v>1.881</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E265" t="n">
         <v>1.881</v>
       </c>
-      <c r="F262" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+      <c r="F265" t="n">
+        <v>20260</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-10829970.52833891</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F266" t="n">
+        <v>265</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-10829705.52833891</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+      <c r="I266" t="n">
         <v>1.881</v>
       </c>
-      <c r="C263" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E263" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F263" t="n">
-        <v>10526.5717</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-10809710.52833891</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F264" t="n">
-        <v>3636.6262</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-10809710.52833891</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F267" t="n">
+        <v>992282.952331078</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-9837422.576007834</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F265" t="n">
-        <v>20260</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-10829970.52833891</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F268" t="n">
+        <v>225467.8005</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-9611954.775507834</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="E266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F266" t="n">
-        <v>265</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-10829705.52833891</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F269" t="n">
+        <v>740845.133121479</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-8871109.642386355</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D267" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F267" t="n">
-        <v>992282.952331078</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-9837422.576007834</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="F270" t="n">
+        <v>139941.922</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-9011051.564386355</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D268" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F268" t="n">
-        <v>225467.8005</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-9611954.775507834</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F271" t="n">
+        <v>254</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-9010797.564386355</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D269" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E269" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F269" t="n">
-        <v>740845.133121479</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-8871109.642386355</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="D270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="E270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="F270" t="n">
-        <v>139941.922</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-9011051.564386355</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="D271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="E271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="F271" t="n">
-        <v>254</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-9010797.564386355</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>219662.2963999997</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>180900.5814999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>180314.6707999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>323278.9481999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>422927.3591999997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>427367.3736999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>402367.3736999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>379313.6451999997</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>152804.9708999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>152804.9708999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>671212.7752999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>653064.3550999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>653064.3550999997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>634613.4884999997</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>525141.4549999997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>251138.2494999997</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>92288.75769999978</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>137420.4232999998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>510415.1728999998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>516084.3379999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1021612.7037</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-5508230.793500001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-5566772.589500002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-5583077.063600002</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-5582816.063600002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5612264.743800002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5190848.558500002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5141168.594900002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-5261376.085500002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-5248896.085500002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4362856.437000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6281599.543100001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6517579.543100001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -7315,10 +7315,14 @@
         <v>-8626947.683877449</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7348,12 +7352,14 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>1.863</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -7387,12 +7393,14 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>1.85</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,12 +7434,14 @@
         <v>-9149681.989977451</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>1.85</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,12 +7475,14 @@
         <v>-9127854.228577452</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>1.869</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,10 +7516,14 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7544,7 +7560,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,10 +7596,14 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,10 +7637,14 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,10 +7678,14 @@
         <v>-9757241.514177451</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,10 +7719,14 @@
         <v>-8842807.17609187</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,7 +7763,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,7 +7841,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,7 +7880,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7877,7 +7919,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,7 +7958,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7948,10 +7994,14 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7985,10 +8035,14 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,10 +8076,14 @@
         <v>-8858861.20139187</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8062,7 +8120,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,7 +8159,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8136,7 +8198,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8173,7 +8237,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8210,7 +8276,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,7 +8315,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,7 +8354,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,7 +8393,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8358,7 +8432,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8395,7 +8471,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,7 +8510,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8469,7 +8549,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8506,7 +8588,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,7 +8627,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,7 +8666,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8614,10 +8702,14 @@
         <v>-10262176.98313891</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8651,10 +8743,14 @@
         <v>-10248856.98313891</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,10 +8784,14 @@
         <v>-10247166.62623891</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8725,10 +8825,14 @@
         <v>-10247736.62623891</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8762,10 +8866,14 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,10 +8907,14 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,10 +8948,14 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,10 +8989,14 @@
         <v>-10374818.68873891</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,10 +9030,14 @@
         <v>-10344541.88643891</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,10 +9071,14 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8984,10 +9112,14 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9024,7 +9156,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,10 +9192,14 @@
         <v>-10750988.00323891</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,7 +9236,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,7 +9275,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,7 +9314,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,12 +9350,12 @@
         <v>-10820237.10003891</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,7 +9392,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,12 +9428,12 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9321,12 +9467,12 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,12 +9506,12 @@
         <v>-10829970.52833891</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9399,12 +9545,12 @@
         <v>-10829705.52833891</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,12 +9584,12 @@
         <v>-9837422.576007834</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9480,7 +9626,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9517,7 +9665,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9554,7 +9704,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9591,7 +9743,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1.862</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,6 +9757,6 @@
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>180900.5814999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>152804.9708999997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>671212.7752999997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>92288.75769999978</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>93288.75769999978</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>137420.4232999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>510415.1728999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>516084.3379999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-5508230.793500001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-5582816.063600002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5612264.743800002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5190848.558500002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5141168.594900002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-5261376.085500002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-5248896.085500002</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4362856.437000002</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-6288583.543100001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6281599.543100001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6517579.543100001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -7315,14 +7315,10 @@
         <v>-8626947.683877449</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7352,19 +7348,11 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7393,19 +7381,11 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7434,19 +7414,11 @@
         <v>-9149681.989977451</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7481,13 +7453,9 @@
         <v>1.869</v>
       </c>
       <c r="J214" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.869</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7522,11 +7490,11 @@
         <v>1.87</v>
       </c>
       <c r="J215" t="n">
-        <v>1.862</v>
+        <v>1.869</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7561,11 +7529,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>1.862</v>
+        <v>1.869</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7596,19 +7564,11 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7637,19 +7597,11 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7678,19 +7630,11 @@
         <v>-9757241.514177451</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7719,19 +7663,11 @@
         <v>-8842807.17609187</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7699,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7732,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7765,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7798,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7831,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7864,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7994,19 +7894,11 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8035,19 +7927,11 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8076,19 +7960,11 @@
         <v>-8858861.20139187</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +7996,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8159,14 +8029,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8198,14 +8062,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +8095,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +8128,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +8161,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +8194,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +8260,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +8293,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +8326,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +8359,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +8392,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +8425,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8666,14 +8458,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8702,19 +8488,11 @@
         <v>-10262176.98313891</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8743,19 +8521,11 @@
         <v>-10248856.98313891</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8784,19 +8554,11 @@
         <v>-10247166.62623891</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8825,19 +8587,11 @@
         <v>-10247736.62623891</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J248" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8866,19 +8620,11 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8907,19 +8653,11 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8948,19 +8686,11 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8989,19 +8719,11 @@
         <v>-10374818.68873891</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9030,19 +8752,11 @@
         <v>-10344541.88643891</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9071,19 +8785,11 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9112,19 +8818,11 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J255" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9156,14 +8854,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9192,19 +8884,11 @@
         <v>-10750988.00323891</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J257" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8920,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9275,14 +8953,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9314,14 +8986,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9353,14 +9019,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9389,17 +9049,11 @@
         <v>-10820237.10003891</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9428,17 +9082,11 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9467,17 +9115,11 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9506,17 +9148,11 @@
         <v>-10829970.52833891</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9548,14 +9184,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9587,14 +9217,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9626,14 +9250,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +9283,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9704,14 +9316,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9743,20 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
       <c r="M271" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -1672,7 +1672,7 @@
         <v>485794.5590999997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>331648.1382999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>331648.1382999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>202558.2494999997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>86398.75769999978</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>92288.75769999978</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>133072.7762999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>516084.3379999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>416084.3379999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>395467.1537999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>416837.1537999997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>16837.15379999974</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>83895.06829999974</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>123703.1954999997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-149528.9455000003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-985576.9459000003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-906303.1637000003</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1021612.7037</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-5595556.1368</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -7150,10 +7150,14 @@
         <v>-8087006.00187745</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.878</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7183,11 +7187,19 @@
         <v>-8428739.258877451</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7228,19 @@
         <v>-8431403.258877451</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7269,19 @@
         <v>-8603475.81057745</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7310,19 @@
         <v>-8647083.97957745</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7351,19 @@
         <v>-8626947.683877449</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7392,19 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7433,19 @@
         <v>-9275024.94097745</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7474,19 @@
         <v>-9149681.989977451</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7453,9 +7521,13 @@
         <v>1.869</v>
       </c>
       <c r="J214" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+        <v>1.878</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +7562,11 @@
         <v>1.87</v>
       </c>
       <c r="J215" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7525,15 +7597,17 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.88</v>
+      </c>
       <c r="J216" t="n">
-        <v>1.869</v>
+        <v>1.878</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7564,11 +7638,19 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7597,11 +7679,19 @@
         <v>-9112931.514177451</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7630,11 +7720,19 @@
         <v>-9757241.514177451</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +7761,19 @@
         <v>-8842807.17609187</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +7802,19 @@
         <v>-8870929.20139187</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +7843,19 @@
         <v>-8870929.20139187</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +7884,19 @@
         <v>-8942649.20139187</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +7925,19 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +7966,19 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +8007,19 @@
         <v>-8897649.20139187</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +8048,19 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +8089,19 @@
         <v>-8897205.20139187</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7960,11 +8130,19 @@
         <v>-8858861.20139187</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +8171,19 @@
         <v>-8858417.20139187</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8026,11 +8212,19 @@
         <v>-8428373.543091871</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +8253,19 @@
         <v>-8151940.6450125</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8095,8 +8297,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8333,19 @@
         <v>-8072171.384418285</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +8374,19 @@
         <v>-9376386.632218285</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8415,19 @@
         <v>-9347761.382643299</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +8456,19 @@
         <v>-9361081.382643299</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +8497,19 @@
         <v>-9253180.21763891</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +8577,19 @@
         <v>-9431783.22303891</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +8621,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8389,11 +8657,19 @@
         <v>-9431783.22303891</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8425,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +8737,19 @@
         <v>-9701661.195038909</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +8778,19 @@
         <v>-10262176.98313891</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8521,11 +8819,19 @@
         <v>-10248856.98313891</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8554,11 +8860,19 @@
         <v>-10247166.62623891</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8901,19 @@
         <v>-10247736.62623891</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8620,11 +8942,19 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +8983,19 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +9024,19 @@
         <v>-10240868.48983891</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +9065,19 @@
         <v>-10374818.68873891</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +9106,19 @@
         <v>-10344541.88643891</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +9147,19 @@
         <v>-10326827.86633891</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +9191,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +9305,19 @@
         <v>-10750988.00323891</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8986,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +9463,17 @@
         <v>-10820237.10003891</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +9502,17 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9115,11 +9541,19 @@
         <v>-10809710.52833891</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9148,11 +9582,19 @@
         <v>-10829970.52833891</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9181,11 +9623,19 @@
         <v>-10829705.52833891</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +9664,19 @@
         <v>-9837422.576007834</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9247,11 +9705,19 @@
         <v>-9611954.775507834</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +9749,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9316,8 +9788,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +9827,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest HYC.xlsx
+++ b/BackTest/2020-01-12 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>20528.4481</v>
       </c>
       <c r="G2" t="n">
-        <v>257730.8216999997</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>142162.0091</v>
       </c>
       <c r="G3" t="n">
-        <v>115568.8125999997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>32576.9991</v>
       </c>
       <c r="G4" t="n">
-        <v>82991.81349999971</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>200675.7952</v>
       </c>
       <c r="G5" t="n">
-        <v>283667.6086999997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>67764.54120000001</v>
       </c>
       <c r="G6" t="n">
-        <v>215903.0674999997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3759.2289</v>
       </c>
       <c r="G7" t="n">
-        <v>219662.2963999997</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>21662.6837</v>
       </c>
       <c r="G8" t="n">
-        <v>197999.6126999997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>149735.3008</v>
       </c>
       <c r="G9" t="n">
-        <v>197999.6126999997</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>55000</v>
       </c>
       <c r="G10" t="n">
-        <v>252999.6126999997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3759.2289</v>
       </c>
       <c r="G11" t="n">
-        <v>252999.6126999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>24553.6719</v>
       </c>
       <c r="G12" t="n">
-        <v>228445.9407999997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16575.4069</v>
       </c>
       <c r="G13" t="n">
-        <v>245021.3476999997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>39158.7476</v>
       </c>
       <c r="G14" t="n">
-        <v>205862.6000999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>92569.4914</v>
       </c>
       <c r="G15" t="n">
-        <v>205862.6000999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>260.5252</v>
       </c>
       <c r="G16" t="n">
-        <v>206123.1252999997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>25222.5438</v>
       </c>
       <c r="G17" t="n">
-        <v>180900.5814999997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>260.625</v>
       </c>
       <c r="G18" t="n">
-        <v>181161.2064999997</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>25018.2639</v>
       </c>
       <c r="G19" t="n">
-        <v>156142.9425999997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>40616.9881</v>
       </c>
       <c r="G20" t="n">
-        <v>156142.9425999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20146.5506</v>
       </c>
       <c r="G21" t="n">
-        <v>135996.3919999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>64917.0958</v>
       </c>
       <c r="G22" t="n">
-        <v>200913.4877999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>13259.3648</v>
       </c>
       <c r="G23" t="n">
-        <v>200913.4877999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>41796.3964</v>
       </c>
       <c r="G24" t="n">
-        <v>159117.0913999997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>21197.5794</v>
       </c>
       <c r="G25" t="n">
-        <v>180314.6707999997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>21669.6205</v>
       </c>
       <c r="G26" t="n">
-        <v>180314.6707999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>159921.1444</v>
       </c>
       <c r="G27" t="n">
-        <v>340235.8151999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>65134.2787</v>
       </c>
       <c r="G28" t="n">
-        <v>275101.5364999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>170247.3347</v>
       </c>
       <c r="G29" t="n">
-        <v>275101.5364999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1471</v>
       </c>
       <c r="G30" t="n">
-        <v>273630.5364999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>49648.4117</v>
       </c>
       <c r="G31" t="n">
-        <v>323278.9481999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>323278.9481999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>50000</v>
       </c>
       <c r="G33" t="n">
-        <v>373278.9481999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>49648.411</v>
       </c>
       <c r="G34" t="n">
-        <v>422927.3591999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4440.0145</v>
       </c>
       <c r="G35" t="n">
-        <v>427367.3736999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>25000</v>
       </c>
       <c r="G36" t="n">
-        <v>402367.3736999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>39051.1561</v>
       </c>
       <c r="G37" t="n">
-        <v>402367.3736999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>83427.1854</v>
       </c>
       <c r="G38" t="n">
-        <v>485794.5590999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>9738.121300000001</v>
       </c>
       <c r="G39" t="n">
-        <v>485794.5590999997</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>106480.9139</v>
       </c>
       <c r="G40" t="n">
-        <v>379313.6451999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>160717.848</v>
       </c>
       <c r="G41" t="n">
-        <v>218595.7971999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>65790.8263</v>
       </c>
       <c r="G42" t="n">
-        <v>152804.9708999997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>50617.4353</v>
       </c>
       <c r="G43" t="n">
-        <v>152804.9708999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>518407.8044</v>
       </c>
       <c r="G44" t="n">
-        <v>671212.7752999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>24592.2801</v>
       </c>
       <c r="G45" t="n">
-        <v>671212.7752999997</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>18148.4202</v>
       </c>
       <c r="G46" t="n">
-        <v>653064.3550999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>65501.01</v>
       </c>
       <c r="G47" t="n">
-        <v>653064.3550999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>262</v>
       </c>
       <c r="G48" t="n">
-        <v>653326.3550999997</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>18712.8666</v>
       </c>
       <c r="G49" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>23866.3886</v>
       </c>
       <c r="G50" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>56780.3019</v>
       </c>
       <c r="G51" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>18928.3445</v>
       </c>
       <c r="G52" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>46905.1428</v>
       </c>
       <c r="G53" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>45201.3954</v>
       </c>
       <c r="G54" t="n">
-        <v>634613.4884999997</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>89601.44190000001</v>
       </c>
       <c r="G55" t="n">
-        <v>724214.9303999997</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>725214.9303999997</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>228522.9214</v>
       </c>
       <c r="G57" t="n">
-        <v>496692.0089999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>28449.446</v>
       </c>
       <c r="G58" t="n">
-        <v>525141.4549999997</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>76048.84669999999</v>
       </c>
       <c r="G59" t="n">
-        <v>601190.3016999997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>632900.174</v>
       </c>
       <c r="G60" t="n">
-        <v>-31709.87230000028</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>50787.708</v>
       </c>
       <c r="G61" t="n">
-        <v>19077.83569999972</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3311.7886</v>
       </c>
       <c r="G62" t="n">
-        <v>19077.83569999972</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>141249.4792</v>
       </c>
       <c r="G63" t="n">
-        <v>19077.83569999972</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>215827.6552</v>
       </c>
       <c r="G64" t="n">
-        <v>234905.4908999997</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>200000</v>
       </c>
       <c r="G65" t="n">
-        <v>434905.4908999997</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>100000</v>
       </c>
       <c r="G66" t="n">
-        <v>434905.4908999997</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>50000</v>
       </c>
       <c r="G67" t="n">
-        <v>434905.4908999997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>103257.3526</v>
       </c>
       <c r="G68" t="n">
-        <v>331648.1382999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>331648.1382999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>331648.1382999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>129089.8888</v>
       </c>
       <c r="G71" t="n">
-        <v>202558.2494999997</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>97170</v>
       </c>
       <c r="G72" t="n">
-        <v>299728.2494999997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>48590</v>
       </c>
       <c r="G73" t="n">
-        <v>251138.2494999997</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>31919.8888</v>
       </c>
       <c r="G74" t="n">
-        <v>283058.1382999998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>95329.5641</v>
       </c>
       <c r="G75" t="n">
-        <v>378387.7023999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>291988.9447</v>
       </c>
       <c r="G76" t="n">
-        <v>86398.75769999978</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>19051.7155</v>
       </c>
       <c r="G77" t="n">
-        <v>86398.75769999978</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>15080</v>
       </c>
       <c r="G78" t="n">
-        <v>101478.7576999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>9190</v>
       </c>
       <c r="G79" t="n">
-        <v>92288.75769999978</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>93288.75769999978</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>93288.75769999978</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>105750</v>
       </c>
       <c r="G82" t="n">
-        <v>93288.75769999978</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>127891.4579</v>
       </c>
       <c r="G83" t="n">
-        <v>93288.75769999978</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>44131.6656</v>
       </c>
       <c r="G84" t="n">
-        <v>137420.4232999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4347.647</v>
       </c>
       <c r="G85" t="n">
-        <v>133072.7762999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>377342.3966</v>
       </c>
       <c r="G86" t="n">
-        <v>510415.1728999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>5669.1651</v>
       </c>
       <c r="G87" t="n">
-        <v>516084.3379999998</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>416084.3379999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>195648.7599</v>
       </c>
       <c r="G89" t="n">
-        <v>416084.3379999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>752.8158</v>
       </c>
       <c r="G90" t="n">
-        <v>416837.1537999997</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>41990.5904</v>
       </c>
       <c r="G91" t="n">
-        <v>416837.1537999997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>21370</v>
       </c>
       <c r="G92" t="n">
-        <v>395467.1537999997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>21370</v>
       </c>
       <c r="G93" t="n">
-        <v>416837.1537999997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>400000</v>
       </c>
       <c r="G94" t="n">
-        <v>16837.15379999974</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>67057.9145</v>
       </c>
       <c r="G95" t="n">
-        <v>83895.06829999974</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>39808.1272</v>
       </c>
       <c r="G96" t="n">
-        <v>123703.1954999997</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>273232.141</v>
       </c>
       <c r="G97" t="n">
-        <v>-149528.9455000003</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>836048.0004</v>
       </c>
       <c r="G98" t="n">
-        <v>-985576.9459000003</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>79273.7822</v>
       </c>
       <c r="G99" t="n">
-        <v>-906303.1637000003</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>8806.5075</v>
       </c>
       <c r="G100" t="n">
-        <v>-906303.1637000003</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>58239.4724</v>
       </c>
       <c r="G101" t="n">
-        <v>-906303.1637000003</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>7000</v>
       </c>
       <c r="G102" t="n">
-        <v>-906303.1637000003</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2500</v>
       </c>
       <c r="G103" t="n">
-        <v>-906303.1637000003</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>115309.54</v>
       </c>
       <c r="G104" t="n">
-        <v>-1021612.7037</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4573943.4331</v>
       </c>
       <c r="G105" t="n">
-        <v>-5595556.1368</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>17585.3433</v>
       </c>
       <c r="G106" t="n">
-        <v>-5577970.793500001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>69740</v>
       </c>
       <c r="G107" t="n">
-        <v>-5508230.793500001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>9000</v>
       </c>
       <c r="G108" t="n">
-        <v>-5508230.793500001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>19940.9175</v>
       </c>
       <c r="G109" t="n">
-        <v>-5528171.711000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>19950</v>
       </c>
       <c r="G110" t="n">
-        <v>-5508221.711000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1174.0385</v>
       </c>
       <c r="G111" t="n">
-        <v>-5507047.672500001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>65000</v>
       </c>
       <c r="G112" t="n">
-        <v>-5507047.672500001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>59724.917</v>
       </c>
       <c r="G113" t="n">
-        <v>-5566772.589500002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>16304.4741</v>
       </c>
       <c r="G114" t="n">
-        <v>-5583077.063600002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>261</v>
       </c>
       <c r="G115" t="n">
-        <v>-5582816.063600002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>29448.6802</v>
       </c>
       <c r="G116" t="n">
-        <v>-5612264.743800002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>29238.9207</v>
       </c>
       <c r="G117" t="n">
-        <v>-5583025.823100002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>392177.2646</v>
       </c>
       <c r="G118" t="n">
-        <v>-5190848.558500002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>49679.9636</v>
       </c>
       <c r="G119" t="n">
-        <v>-5141168.594900002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>120207.4906</v>
       </c>
       <c r="G120" t="n">
-        <v>-5261376.085500002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>12480</v>
       </c>
       <c r="G121" t="n">
-        <v>-5248896.085500002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>886039.6485</v>
       </c>
       <c r="G122" t="n">
-        <v>-4362856.437000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1950724.3264</v>
       </c>
       <c r="G123" t="n">
-        <v>-6313580.763400001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>24997.2203</v>
       </c>
       <c r="G124" t="n">
-        <v>-6288583.543100001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>91852.1848</v>
       </c>
       <c r="G125" t="n">
-        <v>-6288583.543100001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>131038.8129</v>
       </c>
       <c r="G126" t="n">
-        <v>-6288583.543100001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>6984</v>
       </c>
       <c r="G127" t="n">
-        <v>-6281599.543100001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>235980</v>
       </c>
       <c r="G128" t="n">
-        <v>-6517579.543100001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>67644.98759999999</v>
       </c>
       <c r="G129" t="n">
-        <v>-6517579.543100001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>109335.0124</v>
       </c>
       <c r="G130" t="n">
-        <v>-6517579.543100001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>59000</v>
       </c>
       <c r="G131" t="n">
-        <v>-6517579.543100001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>47606.7083</v>
       </c>
       <c r="G132" t="n">
-        <v>-6565186.251400001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>64139.8652</v>
       </c>
       <c r="G133" t="n">
-        <v>-6501046.386200001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>173086.049</v>
       </c>
       <c r="G134" t="n">
-        <v>-6327960.337200002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>485996.3171</v>
       </c>
       <c r="G135" t="n">
-        <v>-6327960.337200002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>20893.9073</v>
       </c>
       <c r="G136" t="n">
-        <v>-6348854.244500002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>526386.5196</v>
       </c>
       <c r="G137" t="n">
-        <v>-5822467.724900002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>32083.1793</v>
       </c>
       <c r="G138" t="n">
-        <v>-5822467.724900002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>21991.9451</v>
       </c>
       <c r="G139" t="n">
-        <v>-5844459.670000002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>21991.9451</v>
       </c>
       <c r="G140" t="n">
-        <v>-5822467.724900002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>288483.2335</v>
       </c>
       <c r="G141" t="n">
-        <v>-6110950.958400002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>8256.946900000001</v>
       </c>
       <c r="G142" t="n">
-        <v>-6110950.958400002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>261</v>
       </c>
       <c r="G143" t="n">
-        <v>-6110689.958400002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>233835.4653</v>
       </c>
       <c r="G144" t="n">
-        <v>-6344525.423700002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>208235.1922</v>
       </c>
       <c r="G145" t="n">
-        <v>-6136290.231500002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>228367.8248</v>
       </c>
       <c r="G146" t="n">
-        <v>-5907922.406700002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>405465.3679</v>
       </c>
       <c r="G147" t="n">
-        <v>-6313387.774600002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>18550.6278</v>
       </c>
       <c r="G148" t="n">
-        <v>-6313387.774600002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>189302.7214</v>
       </c>
       <c r="G149" t="n">
-        <v>-6313387.774600002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>515411.2124</v>
       </c>
       <c r="G150" t="n">
-        <v>-5797976.562200002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>530827.1402</v>
       </c>
       <c r="G151" t="n">
-        <v>-5267149.422000002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>90018.5316</v>
       </c>
       <c r="G152" t="n">
-        <v>-5357167.953600002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>423330</v>
       </c>
       <c r="G153" t="n">
-        <v>-5357167.953600002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>28425.0884</v>
       </c>
       <c r="G154" t="n">
-        <v>-5385593.042000002</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>1332</v>
       </c>
       <c r="G155" t="n">
-        <v>-5384261.042000002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>2220</v>
       </c>
       <c r="G156" t="n">
-        <v>-5386481.042000002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>20669.282</v>
       </c>
       <c r="G157" t="n">
-        <v>-5407150.324000002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>15863.118</v>
       </c>
       <c r="G158" t="n">
-        <v>-5407150.324000002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>17557.6</v>
       </c>
       <c r="G159" t="n">
-        <v>-5407150.324000002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>1198758.2417</v>
       </c>
       <c r="G160" t="n">
-        <v>-5407150.324000002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>835791.5314</v>
       </c>
       <c r="G161" t="n">
-        <v>-6242941.855400002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>88371.4463</v>
       </c>
       <c r="G162" t="n">
-        <v>-6154570.409100002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>654158.674</v>
       </c>
       <c r="G163" t="n">
-        <v>-6808729.083100001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>232740.0633</v>
       </c>
       <c r="G164" t="n">
-        <v>-7041469.146400001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>4782.0837</v>
       </c>
       <c r="G165" t="n">
-        <v>-7036687.062700001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>444</v>
       </c>
       <c r="G166" t="n">
-        <v>-7037131.062700001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>8780</v>
       </c>
       <c r="G167" t="n">
-        <v>-7045911.062700001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>184228.9236</v>
       </c>
       <c r="G168" t="n">
-        <v>-7045911.062700001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>47750</v>
       </c>
       <c r="G169" t="n">
-        <v>-7045911.062700001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>40159.4845</v>
       </c>
       <c r="G170" t="n">
-        <v>-7005751.5782</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>56350.5155</v>
       </c>
       <c r="G171" t="n">
-        <v>-7005751.5782</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>41877.3992</v>
       </c>
       <c r="G172" t="n">
-        <v>-6963874.179</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>444</v>
       </c>
       <c r="G173" t="n">
-        <v>-6963430.179</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>131763.1355</v>
       </c>
       <c r="G174" t="n">
-        <v>-6831667.043500001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>444</v>
       </c>
       <c r="G175" t="n">
-        <v>-6832111.043500001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>165400</v>
       </c>
       <c r="G176" t="n">
-        <v>-6997511.043500001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>40908.4444</v>
       </c>
       <c r="G177" t="n">
-        <v>-7038419.487900001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>28470</v>
       </c>
       <c r="G178" t="n">
-        <v>-7009949.487900001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>78497.606</v>
       </c>
       <c r="G179" t="n">
-        <v>-7088447.093900001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>467621.5227</v>
       </c>
       <c r="G180" t="n">
-        <v>-6620825.571200001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>215994.709</v>
       </c>
       <c r="G181" t="n">
-        <v>-6836820.280200001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>283903.975906382</v>
       </c>
       <c r="G182" t="n">
-        <v>-7120724.256106383</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>62904.9823</v>
       </c>
       <c r="G183" t="n">
-        <v>-7120724.256106383</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>900460.3003</v>
       </c>
       <c r="G184" t="n">
-        <v>-8021184.556406383</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>265080.1927</v>
       </c>
       <c r="G185" t="n">
-        <v>-7756104.363706384</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>2220</v>
       </c>
       <c r="G186" t="n">
-        <v>-7753884.363706384</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>184352.9565</v>
       </c>
       <c r="G187" t="n">
-        <v>-7569531.407206384</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>22162.336428933</v>
       </c>
       <c r="G188" t="n">
-        <v>-7547369.070777451</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>27249.682</v>
       </c>
       <c r="G189" t="n">
-        <v>-7574618.752777451</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>42841.4745</v>
       </c>
       <c r="G190" t="n">
-        <v>-7531777.278277451</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>24790.4371</v>
       </c>
       <c r="G191" t="n">
-        <v>-7531777.278277451</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>10028.8403</v>
       </c>
       <c r="G192" t="n">
-        <v>-7531777.278277451</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>70235.0815</v>
       </c>
       <c r="G193" t="n">
-        <v>-7461542.196777451</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>28870.3941</v>
       </c>
       <c r="G194" t="n">
-        <v>-7490412.590877451</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>143216.1881</v>
       </c>
       <c r="G195" t="n">
-        <v>-7633628.778977451</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>611780.3872999999</v>
       </c>
       <c r="G196" t="n">
-        <v>-8245409.166277451</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>32030.3341</v>
       </c>
       <c r="G197" t="n">
-        <v>-8245409.166277451</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>55000</v>
       </c>
       <c r="G198" t="n">
-        <v>-8300409.166277451</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>16598.6094</v>
       </c>
       <c r="G199" t="n">
-        <v>-8300409.166277451</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>278023.5202</v>
       </c>
       <c r="G200" t="n">
-        <v>-8022385.64607745</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>3636.444</v>
       </c>
       <c r="G201" t="n">
-        <v>-8026022.09007745</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>6165.2693</v>
       </c>
       <c r="G202" t="n">
-        <v>-8026022.09007745</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>21116.4732</v>
       </c>
       <c r="G203" t="n">
-        <v>-8026022.09007745</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>63647.9118</v>
       </c>
       <c r="G204" t="n">
-        <v>-8089670.00187745</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,22 +6533,15 @@
         <v>2664</v>
       </c>
       <c r="G205" t="n">
-        <v>-8087006.00187745</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7184,2661 +6563,2379 @@
         <v>341733.257</v>
       </c>
       <c r="G206" t="n">
-        <v>-8428739.258877451</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="J206" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2664</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F208" t="n">
+        <v>172072.5517</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F207" t="n">
-        <v>2664</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-8431403.258877451</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F209" t="n">
+        <v>43608.169</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="I209" t="n">
         <v>1.876</v>
       </c>
-      <c r="J207" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K207" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="C208" t="n">
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>1.863</v>
       </c>
-      <c r="D208" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="E208" t="n">
+      <c r="C210" t="n">
         <v>1.863</v>
       </c>
-      <c r="F208" t="n">
-        <v>172072.5517</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-8603475.81057745</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K208" t="inlineStr">
+      <c r="D210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F210" t="n">
+        <v>20136.2957</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F209" t="n">
-        <v>43608.169</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-8647083.97957745</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>1.863</v>
       </c>
-      <c r="J209" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K209" t="inlineStr">
+      <c r="C211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F211" t="n">
+        <v>648077.2571</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F210" t="n">
-        <v>20136.2957</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-8626947.683877449</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K210" t="inlineStr">
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F212" t="n">
+        <v>341373.3969</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C211" t="n">
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F213" t="n">
+        <v>125342.951</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
         <v>1.85</v>
       </c>
-      <c r="D211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F211" t="n">
-        <v>648077.2571</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-9275024.94097745</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K211" t="inlineStr">
+      <c r="I213" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F212" t="n">
-        <v>341373.3969</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-9275024.94097745</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K212" t="inlineStr">
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F214" t="n">
+        <v>21827.7614</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="F213" t="n">
-        <v>125342.951</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-9149681.989977451</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K213" t="inlineStr">
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14922.7144</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F214" t="n">
-        <v>21827.7614</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-9127854.228577452</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K214" t="inlineStr">
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F216" t="n">
+        <v>133950.1989</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="C215" t="n">
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
         <v>1.88</v>
       </c>
-      <c r="D215" t="n">
+      <c r="C217" t="n">
         <v>1.88</v>
       </c>
-      <c r="E215" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F215" t="n">
-        <v>14922.7144</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K215" t="inlineStr">
+      <c r="D217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F217" t="n">
+        <v>139746.0645</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C218" t="n">
         <v>1.88</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D218" t="n">
         <v>1.88</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E218" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F218" t="n">
+        <v>211848.0578</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
         <v>1.88</v>
       </c>
-      <c r="E216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F216" t="n">
-        <v>133950.1989</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K216" t="inlineStr">
+      <c r="I218" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F219" t="n">
+        <v>644310</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
         <v>1.88</v>
       </c>
-      <c r="C217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F217" t="n">
-        <v>139746.0645</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K217" t="inlineStr">
+      <c r="I219" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
         <v>1.872</v>
       </c>
-      <c r="C218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F218" t="n">
-        <v>211848.0578</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-9112931.514177451</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K218" t="inlineStr">
+      <c r="C220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F220" t="n">
+        <v>914434.33808558</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F219" t="n">
-        <v>644310</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-9757241.514177451</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28122.0253</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F220" t="n">
-        <v>914434.33808558</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-8842807.17609187</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K220" t="inlineStr">
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F222" t="n">
+        <v>159394</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C221" t="n">
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>1.894</v>
       </c>
-      <c r="D221" t="n">
+      <c r="C223" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D223" t="n">
         <v>1.894</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E223" t="n">
         <v>1.881</v>
       </c>
-      <c r="F221" t="n">
-        <v>28122.0253</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-8870929.20139187</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K221" t="inlineStr">
+      <c r="F223" t="n">
+        <v>71720</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F222" t="n">
-        <v>159394</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-8870929.20139187</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K222" t="inlineStr">
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F224" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F223" t="n">
-        <v>71720</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-8942649.20139187</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F225" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
         <v>1.882</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C226" t="n">
         <v>1.882</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D226" t="n">
         <v>1.882</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E226" t="n">
         <v>1.882</v>
       </c>
-      <c r="F224" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K224" t="inlineStr">
+      <c r="F226" t="n">
+        <v>102417.0779</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F225" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F227" t="n">
+        <v>444</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F226" t="n">
-        <v>102417.0779</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-8897649.20139187</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K226" t="inlineStr">
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F228" t="n">
+        <v>35076</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F227" t="n">
-        <v>444</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-8897205.20139187</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38344</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F228" t="n">
-        <v>35076</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-8897205.20139187</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K228" t="inlineStr">
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F230" t="n">
+        <v>444</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F229" t="n">
-        <v>38344</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-8858861.20139187</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K229" t="inlineStr">
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="F231" t="n">
+        <v>430043.6583</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E232" t="n">
         <v>1.893</v>
       </c>
-      <c r="C230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F230" t="n">
-        <v>444</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-8858417.20139187</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K230" t="inlineStr">
+      <c r="F232" t="n">
+        <v>276432.898079371</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="F231" t="n">
-        <v>430043.6583</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-8428373.543091871</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F233" t="n">
+        <v>63815.4929</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F232" t="n">
-        <v>276432.898079371</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-8151940.6450125</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J232" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K232" t="inlineStr">
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F234" t="n">
+        <v>143584.753494215</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F233" t="n">
-        <v>63815.4929</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-8215756.1379125</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1304215.2478</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F234" t="n">
-        <v>143584.753494215</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-8072171.384418285</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K234" t="inlineStr">
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F236" t="n">
+        <v>28625.249574986</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1.907</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1304215.2478</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-9376386.632218285</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="J235" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13320</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="F236" t="n">
-        <v>28625.249574986</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-9347761.382643299</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K236" t="inlineStr">
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F238" t="n">
+        <v>107901.165004389</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F237" t="n">
-        <v>13320</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-9361081.382643299</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F239" t="n">
+        <v>23203.8769</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>107901.165004389</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-9253180.21763891</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K238" t="inlineStr">
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F240" t="n">
+        <v>155399.1285</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F239" t="n">
-        <v>23203.8769</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-9276384.09453891</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K239" t="inlineStr">
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F241" t="n">
+        <v>21331.1872</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C240" t="n">
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
         <v>1.876</v>
       </c>
-      <c r="D240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E240" t="n">
+      <c r="C242" t="n">
         <v>1.876</v>
       </c>
-      <c r="F240" t="n">
-        <v>155399.1285</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K240" t="inlineStr">
+      <c r="D242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F242" t="n">
+        <v>19793.843</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>1.876</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C243" t="n">
         <v>1.876</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D243" t="n">
         <v>1.876</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E243" t="n">
         <v>1.876</v>
       </c>
-      <c r="F241" t="n">
-        <v>21331.1872</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K241" t="inlineStr">
+      <c r="F243" t="n">
+        <v>13447.61</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
         <v>1.876</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C244" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D244" t="n">
         <v>1.876</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E244" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="F244" t="n">
+        <v>269877.972</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
         <v>1.876</v>
       </c>
-      <c r="E242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F242" t="n">
-        <v>19793.843</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K242" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F245" t="n">
+        <v>560515.7881</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
         <v>1.876</v>
       </c>
-      <c r="C243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F243" t="n">
-        <v>13447.61</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-9431783.22303891</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K243" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13320</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
         <v>1.876</v>
       </c>
-      <c r="C244" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E244" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="F244" t="n">
-        <v>269877.972</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-9701661.195038909</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K244" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D245" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F245" t="n">
-        <v>560515.7881</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-10262176.98313891</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K245" t="inlineStr">
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1690.3569</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
         <v>1.866</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C248" t="n">
         <v>1.866</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D248" t="n">
         <v>1.866</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E248" t="n">
         <v>1.866</v>
       </c>
-      <c r="F246" t="n">
-        <v>13320</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-10248856.98313891</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K246" t="inlineStr">
+      <c r="F248" t="n">
+        <v>570</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
         <v>1.87</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C249" t="n">
         <v>1.87</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D249" t="n">
         <v>1.87</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E249" t="n">
         <v>1.87</v>
       </c>
-      <c r="F247" t="n">
-        <v>1690.3569</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-10247166.62623891</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K247" t="inlineStr">
+      <c r="F249" t="n">
+        <v>6868.1364</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E248" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F248" t="n">
-        <v>570</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-10247736.62623891</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
         <v>1.87</v>
       </c>
-      <c r="J248" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K248" t="inlineStr">
+      <c r="C250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F250" t="n">
+        <v>160155.9564</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
         <v>1.87</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C251" t="n">
         <v>1.87</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D251" t="n">
         <v>1.87</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E251" t="n">
         <v>1.87</v>
       </c>
-      <c r="F249" t="n">
-        <v>6868.1364</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K249" t="inlineStr">
+      <c r="F251" t="n">
+        <v>312975.9072</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F250" t="n">
-        <v>160155.9564</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K250" t="inlineStr">
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F252" t="n">
+        <v>133950.1989</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
         <v>1.87</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C253" t="n">
         <v>1.87</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D253" t="n">
         <v>1.87</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E253" t="n">
         <v>1.87</v>
       </c>
-      <c r="F251" t="n">
-        <v>312975.9072</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-10240868.48983891</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K251" t="inlineStr">
+      <c r="F253" t="n">
+        <v>30276.8023</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="F252" t="n">
-        <v>133950.1989</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-10374818.68873891</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K252" t="inlineStr">
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F254" t="n">
+        <v>17714.0201</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F253" t="n">
-        <v>30276.8023</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-10344541.88643891</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K253" t="inlineStr">
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F255" t="n">
+        <v>40595.2532</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E254" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F254" t="n">
-        <v>17714.0201</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-10326827.86633891</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
         <v>1.87</v>
       </c>
-      <c r="J254" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K254" t="inlineStr">
+      <c r="C256" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F256" t="n">
+        <v>424983.5468</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E255" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F255" t="n">
-        <v>40595.2532</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-10326827.86633891</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K255" t="inlineStr">
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F257" t="n">
+        <v>823.4099</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
         <v>1.87</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C258" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E258" t="n">
         <v>1.87</v>
       </c>
-      <c r="D256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E256" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F256" t="n">
-        <v>424983.5468</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-10751811.41313891</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K256" t="inlineStr">
+      <c r="F258" t="n">
+        <v>489207.8417</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
         <v>1.889</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C259" t="n">
         <v>1.889</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D259" t="n">
         <v>1.889</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E259" t="n">
         <v>1.889</v>
       </c>
-      <c r="F257" t="n">
-        <v>823.4099</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K257" t="inlineStr">
+      <c r="F259" t="n">
+        <v>16850.1516</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C258" t="n">
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
         <v>1.889</v>
       </c>
-      <c r="D258" t="n">
+      <c r="C260" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D260" t="n">
         <v>1.889</v>
       </c>
-      <c r="E258" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F258" t="n">
-        <v>489207.8417</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K258" t="inlineStr">
+      <c r="E260" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F260" t="n">
+        <v>69249.0968</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E259" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F259" t="n">
-        <v>16850.1516</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-10750988.00323891</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K259" t="inlineStr">
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F261" t="n">
+        <v>20457.1351</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C260" t="n">
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
         <v>1.881</v>
       </c>
-      <c r="D260" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E260" t="n">
+      <c r="C262" t="n">
         <v>1.881</v>
       </c>
-      <c r="F260" t="n">
-        <v>69249.0968</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K260" t="inlineStr">
+      <c r="D262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F262" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
         <v>1.881</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E263" t="n">
         <v>1.881</v>
       </c>
-      <c r="D261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F261" t="n">
-        <v>20457.1351</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K261" t="inlineStr">
+      <c r="F263" t="n">
+        <v>10526.5717</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E262" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F262" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-10820237.10003891</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K262" t="inlineStr">
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3636.6262</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
         <v>1.881</v>
       </c>
-      <c r="C263" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E263" t="n">
+      <c r="C265" t="n">
         <v>1.881</v>
       </c>
-      <c r="F263" t="n">
-        <v>10526.5717</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-10809710.52833891</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K263" t="inlineStr">
+      <c r="D265" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F265" t="n">
+        <v>20260</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F264" t="n">
-        <v>3636.6262</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-10809710.52833891</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J264" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K264" t="inlineStr">
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F266" t="n">
+        <v>265</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="E265" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F265" t="n">
-        <v>20260</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-10829970.52833891</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J265" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K265" t="inlineStr">
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F267" t="n">
+        <v>992282.952331078</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="E266" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F266" t="n">
-        <v>265</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-10829705.52833891</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J266" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K266" t="inlineStr">
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F268" t="n">
+        <v>225467.8005</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D267" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F267" t="n">
-        <v>992282.952331078</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-9837422.576007834</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="J267" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K267" t="inlineStr">
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F269" t="n">
+        <v>740845.133121479</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D268" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F268" t="n">
-        <v>225467.8005</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-9611954.775507834</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J268" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K268" t="inlineStr">
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="F270" t="n">
+        <v>139941.922</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D269" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E269" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F269" t="n">
-        <v>740845.133121479</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-8871109.642386355</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K269" t="inlineStr">
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F271" t="n">
+        <v>254</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="D270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="E270" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="F270" t="n">
-        <v>139941.922</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-9011051.564386355</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="D271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="E271" t="n">
-        <v>1.929</v>
-      </c>
-      <c r="F271" t="n">
-        <v>254</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-9010797.564386355</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
